--- a/data/hotels_by_city/Dallas/Dallas_shard_642.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_642.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="533">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1481 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r386494993-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>55815</t>
+  </si>
+  <si>
+    <t>226212</t>
+  </si>
+  <si>
+    <t>386494993</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>not worth it!!!</t>
+  </si>
+  <si>
+    <t>was told every room had a refrigerator and microwave but when we get into the room no refrigerator and microwave was sitting in the middle of the floor. A/C would barely blow even on high. Sheets and pillow cases were covered in dust. Non-Smoking room smelt like an ash tray.Every part of the breakfast was watered down. The waffle mix was so watered down making it impossible to cook all the way through. Coffe, orange juice and apple juice were watered down to the point they were just colored water. Staff was the only thing pleasent about this hotel.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r380082871-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>380082871</t>
+  </si>
+  <si>
+    <t>06/05/2016</t>
+  </si>
+  <si>
+    <t>Ewwwwww</t>
+  </si>
+  <si>
+    <t>Found this room fast and cheap for a Ranger game. Room was gross enough to gag a maggot. Carpet was STICKY.The hallway smelled of marijuana .... Alot , morning and night then quickly covered with a "leather" smell. Ewww again! Bathroom towels were stiff ... Only bar soap and small tiny shampoo bottle. I was afraid the bathroom floor was gonna cave in. TV cable didn't work properly, room phone wasn't plugged in neither was clock. No coffee maker. Mini fridge looked like it was from a junk yard. Wanted to ask for money return but was too tired and in a hurry.Eww</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r364557885-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>364557885</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Clean and comfortable</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay and like that they upgraded the TVs to a 50 inch flat screen.         I got all of the same amenities as when I stay at a Holiday Inn but didn't cost me near as much. I will definitely return.Staff was amazingly polite, it's nice to see some hotels still provide good customer service.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r355864104-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>355864104</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Worst experience yet.</t>
+  </si>
+  <si>
+    <t>Rented 2 rooms. The first room was ok it just had a tv from around 1953 in it (sarcasm). The second room was DISGUSTING!!! The floor wasn't vacuumed, it smelled like somebody died in it, there were yellow stains on one bed and blood stains on the other bed. I asked for a refund and was told no because it had been more than an hour but when we checked into the room we didn't even go inside because we just flew from Florida and went straight to dinner but wanted to check-in first so we didn't lose our reservations. Which was a complete lie because I manage a Wyndham property in Florida myself so I already know how things work. The next morning he offers me a different room and gives me keys to 2 different rooms to look at and BOTH rooms were worse than the first one. I didn't see one house keeper the entire time I was there, and the pest control company was there in the morning spraying multiple rooms for bed bugs. HORRIBLE customer service, DISGUSTING property, REGRETFUL experience. DO NOT STAY HERE!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Rented 2 rooms. The first room was ok it just had a tv from around 1953 in it (sarcasm). The second room was DISGUSTING!!! The floor wasn't vacuumed, it smelled like somebody died in it, there were yellow stains on one bed and blood stains on the other bed. I asked for a refund and was told no because it had been more than an hour but when we checked into the room we didn't even go inside because we just flew from Florida and went straight to dinner but wanted to check-in first so we didn't lose our reservations. Which was a complete lie because I manage a Wyndham property in Florida myself so I already know how things work. The next morning he offers me a different room and gives me keys to 2 different rooms to look at and BOTH rooms were worse than the first one. I didn't see one house keeper the entire time I was there, and the pest control company was there in the morning spraying multiple rooms for bed bugs. HORRIBLE customer service, DISGUSTING property, REGRETFUL experience. DO NOT STAY HERE!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r354547633-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>354547633</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awful Hotel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was the worst hotel I have ever stayed at. We have stayed in microtel before and this was the first time in this location. Room was dirty floor was sticky pubic hair on towel sheets stained Yellow and the breakfast was minimal and stale. Nothing hot except for waffles. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r353339796-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>353339796</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r341716517-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>341716517</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Downhill over the years</t>
+  </si>
+  <si>
+    <t>We have used the microtel 901 Airport Freeway, Euless TX for several years now.  Just returned from Texas earlier this week after booking there once again.  On our last visit a year ago the room had mold in the bathroom and didn't smell all that good.  This time 2016 we had a room with a small cockroach in the bathroom, mold around the tub were the surround meets the tub, rip in the carpet, wardrobe was warped at the bottom and probably had mold, curtain was hanging by only about four hooks, bed sheets had so many pills it felt like sand paper, bed was made haphazardly, and the continental breakfast was cold cereal, a few rolls and muffins, milk, the usual waffle machine, juice, one type of coffee, and water that might or might not be hot for your tea.  The trash was picked up in and around the building but the place needs some maintenance.  We have decided it's time to move on although we like the location and low cost of staying there.  If you stay bring your own box of tissues as we had a travel size in the bathroom that ran out.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We have used the microtel 901 Airport Freeway, Euless TX for several years now.  Just returned from Texas earlier this week after booking there once again.  On our last visit a year ago the room had mold in the bathroom and didn't smell all that good.  This time 2016 we had a room with a small cockroach in the bathroom, mold around the tub were the surround meets the tub, rip in the carpet, wardrobe was warped at the bottom and probably had mold, curtain was hanging by only about four hooks, bed sheets had so many pills it felt like sand paper, bed was made haphazardly, and the continental breakfast was cold cereal, a few rolls and muffins, milk, the usual waffle machine, juice, one type of coffee, and water that might or might not be hot for your tea.  The trash was picked up in and around the building but the place needs some maintenance.  We have decided it's time to move on although we like the location and low cost of staying there.  If you stay bring your own box of tissues as we had a travel size in the bathroom that ran out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r339008319-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>339008319</t>
+  </si>
+  <si>
+    <t>01/10/2016</t>
+  </si>
+  <si>
+    <t>Not a good experience</t>
+  </si>
+  <si>
+    <t>This property appears to decline on each visit.   The front desk personnel are rude and not helpful.   The non smoking room smelled of smoke, there was a new flat screen tv that was unplugged. Plugged the tv in and discovered that the remote would control the channels but not the volume (it was loud).  Went to desk and ask for new batteries for remote was told that the remote was working fine and tv was working fine.    Ok, at this point I guest I really don't need the television.  There were no bath &amp; face towels. Again, had to return to the desk.  Was given items asked for but the fact that these items were not in the room did not seem to be an issue for hotel staff.  If you want a cheap place to stay and don't mind these inconveniences this is the place to stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This property appears to decline on each visit.   The front desk personnel are rude and not helpful.   The non smoking room smelled of smoke, there was a new flat screen tv that was unplugged. Plugged the tv in and discovered that the remote would control the channels but not the volume (it was loud).  Went to desk and ask for new batteries for remote was told that the remote was working fine and tv was working fine.    Ok, at this point I guest I really don't need the television.  There were no bath &amp; face towels. Again, had to return to the desk.  Was given items asked for but the fact that these items were not in the room did not seem to be an issue for hotel staff.  If you want a cheap place to stay and don't mind these inconveniences this is the place to stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r339001732-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>339001732</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r337568991-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>337568991</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r334694732-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>334694732</t>
+  </si>
+  <si>
+    <t>12/23/2015</t>
+  </si>
+  <si>
+    <t>Dallas trip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hotel was adequate yet seriously lacking in ammedities.. The breakfast was not good or for most part most items didn't work </t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r332768142-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>332768142</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r326078558-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>326078558</t>
+  </si>
+  <si>
+    <t>11/11/2015</t>
+  </si>
+  <si>
+    <t>From good to bad to worse</t>
+  </si>
+  <si>
+    <t>Early check in allowed and was allowed to change from smoking to non-smoking room then it went downhill.Stayed only a few minutes but enough time to purchase air freshener to help with the bad mildew smell in the room, no towels at all were in the room and cleanliness was missing. The guy who checked us in was in the hall so I asked him to bring some towels because we were leaving to the game but that never happened. Wife and daughter returned early only to here banging on their room door from some stranger and it took two calls to the front desk to get rid of the stranger. I arrived later only to realize there were still no towels, called in the morning and they  said come down and get them. I go get them and they only give me 1 large towel and 4 little ones and say come back later for more. I could not have lasted another night there. I will definitely pass the word to friends, family, co-workers and enemies to avoid Microtel and Wyndham.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Early check in allowed and was allowed to change from smoking to non-smoking room then it went downhill.Stayed only a few minutes but enough time to purchase air freshener to help with the bad mildew smell in the room, no towels at all were in the room and cleanliness was missing. The guy who checked us in was in the hall so I asked him to bring some towels because we were leaving to the game but that never happened. Wife and daughter returned early only to here banging on their room door from some stranger and it took two calls to the front desk to get rid of the stranger. I arrived later only to realize there were still no towels, called in the morning and they  said come down and get them. I go get them and they only give me 1 large towel and 4 little ones and say come back later for more. I could not have lasted another night there. I will definitely pass the word to friends, family, co-workers and enemies to avoid Microtel and Wyndham.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r326065678-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>326065678</t>
+  </si>
+  <si>
+    <t>Microtel Inn &amp; Suites Review</t>
+  </si>
+  <si>
+    <t>I was in town for the Dallas Cowboys game and wanted some place inexpensive to stay.  The hotel was close to the stadium, malls, restaurants, etc.; therefore, it was very convenient.  It was clean and the staff was friendly.  I got what I paid for and don't have any complaints.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r325238063-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>325238063</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>Accommodating,clean,a good two star hotel.</t>
+  </si>
+  <si>
+    <t>CJ at front desk dealt with reservation snafu politely and gave me discount even tho reservation was was not received from service. Room,bathroom clean;bed,sheets towels clean,breakfast fine etc. it isn't the Ritz,but a serviceable motel for overnight stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r324503422-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>324503422</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Microtel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The stay was ok. Because we were so tired and the price was good. But the front desk was rude. Seemed a bit blunt. And not nice. But other than that everything was good </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r323327733-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>323327733</t>
+  </si>
+  <si>
+    <t>10/30/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Had a layover because of bad weather. This was the place the airline dumped us at. Sketchy as heck.  The clerk there was out of a bad movie.  I was afraid to sleep in the bed and sat up all night until the taxi came the next morning. Gag.</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r322896662-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>322896662</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Do Not Stay Here</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After spending 2 previous nights in a Microtel near Austin, we booked this DFW Airport location. Hotel was disgusting! Room smelled of mildew. Sheets stained. Bathroom floor felt like it was mopped with orange juice. Shower temperature was only scalding. Room had not been vacuumed. Clock broken and cord was screwed to outlet as to make outlet unusable for power.No room WIFI and only worked for 10 min in lobby (was getting a stronger signal on neighboring Motel 6). And please do not get me started on now bad breakfast was.  </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r320794405-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>320794405</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>5 DAY STAY AT MICROTEL IN EULESS TEXAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the room smelled of cigarettes, the ice and juice machines did not work, breakfast was not a pleasant experienceand the day desk man was wearing his pajamas everyday. I have used this hotel two timmes a yr for the past 5 yrs and everytime, the quality of service keeps going down      </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r318418682-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>318418682</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Run Away As Fast As You Can</t>
+  </si>
+  <si>
+    <t>I travel quite a lot. This is the worst hotel ever. Shame on Wyndham for putting their name on such an incredibly filthy, trashy hotel. The clerks were not even wearing shoes, had on pajama bottoms and looked liked they just woke up. If you have the choice of staying in this hotel and sleeping on a bench or in your car, choose the bench or car... Didn't even have towels in the room. We asked for them, they delivered them more than an hour later and they were still damp. This was at 6 p.m.  Only hot faucet worked in the sink, dirt on the curtains. I could go on and on...MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel quite a lot. This is the worst hotel ever. Shame on Wyndham for putting their name on such an incredibly filthy, trashy hotel. The clerks were not even wearing shoes, had on pajama bottoms and looked liked they just woke up. If you have the choice of staying in this hotel and sleeping on a bench or in your car, choose the bench or car... Didn't even have towels in the room. We asked for them, they delivered them more than an hour later and they were still damp. This was at 6 p.m.  Only hot faucet worked in the sink, dirt on the curtains. I could go on and on...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r316690823-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>316690823</t>
+  </si>
+  <si>
+    <t>10/06/2015</t>
+  </si>
+  <si>
+    <t>Rude staff,musty odor room</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel at around 8:30 am and the front desk lady was there to accomodate us. She just gave me the keys and directed us in our room. I went to the room and checked it when I entered it smells musty and the carpet was so sticky. We were so exhausted that time thats why I didn't complain and want to just rest. My husband was hungry that time and I told him there is a free breakfast just in front of the lobby at the front desk so he went. He was getting a juice that time and suddenly the frontdesk lady starts to slam the doors of where the food is and verbally told my husband that the breakfast time is over. She did not even told me that the breakfast time is only until 9am when we arrive. The breakfast area was still open when my husband arrived there and she just start slamming the cabinet doors when he start to take the FREE breakfast that was included in our stay. She also ask me the pay extra$25 for early check in and I have no choice but to pay extra because we were so exhausted. The other hotel that I have been never ask for extra payment if we checked in early but anyway they have different policies I think. I will never recommend this hotel. I feel uncomfortable with our stay...We arrived at the hotel at around 8:30 am and the front desk lady was there to accomodate us. She just gave me the keys and directed us in our room. I went to the room and checked it when I entered it smells musty and the carpet was so sticky. We were so exhausted that time thats why I didn't complain and want to just rest. My husband was hungry that time and I told him there is a free breakfast just in front of the lobby at the front desk so he went. He was getting a juice that time and suddenly the frontdesk lady starts to slam the doors of where the food is and verbally told my husband that the breakfast time is over. She did not even told me that the breakfast time is only until 9am when we arrive. The breakfast area was still open when my husband arrived there and she just start slamming the cabinet doors when he start to take the FREE breakfast that was included in our stay. She also ask me the pay extra$25 for early check in and I have no choice but to pay extra because we were so exhausted. The other hotel that I have been never ask for extra payment if we checked in early but anyway they have different policies I think. I will never recommend this hotel. I feel uncomfortable with our stay here. Cleaning staff is always late. She did not even gave us the password for the free internet that was included in our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived at the hotel at around 8:30 am and the front desk lady was there to accomodate us. She just gave me the keys and directed us in our room. I went to the room and checked it when I entered it smells musty and the carpet was so sticky. We were so exhausted that time thats why I didn't complain and want to just rest. My husband was hungry that time and I told him there is a free breakfast just in front of the lobby at the front desk so he went. He was getting a juice that time and suddenly the frontdesk lady starts to slam the doors of where the food is and verbally told my husband that the breakfast time is over. She did not even told me that the breakfast time is only until 9am when we arrive. The breakfast area was still open when my husband arrived there and she just start slamming the cabinet doors when he start to take the FREE breakfast that was included in our stay. She also ask me the pay extra$25 for early check in and I have no choice but to pay extra because we were so exhausted. The other hotel that I have been never ask for extra payment if we checked in early but anyway they have different policies I think. I will never recommend this hotel. I feel uncomfortable with our stay...We arrived at the hotel at around 8:30 am and the front desk lady was there to accomodate us. She just gave me the keys and directed us in our room. I went to the room and checked it when I entered it smells musty and the carpet was so sticky. We were so exhausted that time thats why I didn't complain and want to just rest. My husband was hungry that time and I told him there is a free breakfast just in front of the lobby at the front desk so he went. He was getting a juice that time and suddenly the frontdesk lady starts to slam the doors of where the food is and verbally told my husband that the breakfast time is over. She did not even told me that the breakfast time is only until 9am when we arrive. The breakfast area was still open when my husband arrived there and she just start slamming the cabinet doors when he start to take the FREE breakfast that was included in our stay. She also ask me the pay extra$25 for early check in and I have no choice but to pay extra because we were so exhausted. The other hotel that I have been never ask for extra payment if we checked in early but anyway they have different policies I think. I will never recommend this hotel. I feel uncomfortable with our stay here. Cleaning staff is always late. She did not even gave us the password for the free internet that was included in our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r315103647-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>315103647</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>Found other peoples clothes in closet. Did not have bedding...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Found other peoples clothes in closet. Did not have bedding for sofa bed or pillows. Was able to obtain bedding later, but no extra pillows.   </t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r314933431-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>314933431</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r314922935-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>314922935</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r309089349-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>309089349</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r308875919-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>308875919</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r308097791-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>308097791</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Worst Hotel In Years</t>
+  </si>
+  <si>
+    <t>Stayed here for one night but scheduled for 2 night getaway.  Had to change hotels because it was so bad.  First the hotel is so dirty (lobby, halls, and room).  The room was supposed to be non-smoking but reeked of smoke and there was evidence of smoking by burn marks on the pads and pillow in the window.  The sheets were stained and the bedspread was somewhere in the 70's era.  The blanket on the bed was worn.  The water was either hot, hotter, or scorching.  There was no warm.  The free internet was almost non-existent.  Definitely will not stay at a Wyndham hotel again.  Run from this hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r301310739-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>301310739</t>
+  </si>
+  <si>
+    <t>08/19/2015</t>
+  </si>
+  <si>
+    <t>GOOD CLEANING AND GOOD SERVICES</t>
+  </si>
+  <si>
+    <t>When i was checking than time front-desk guy is very good  accent and his a really co-operate with taking care for customer . and lastly i said place is good, the employees is good more ever manager is very good ... i will come definitely again here</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r298647482-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>298647482</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Location is great, service is not</t>
+  </si>
+  <si>
+    <t>This hotel met my expectations for location but other than that nothing else. Housekeeping was a joke, the counter clerks seemed to have no clue and the biggest kicker was the fact the floor in front of the A/C unit was soaking wet. When told of the problem there was no offer of a different room and no one ever did check the situation out.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r298043402-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>298043402</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r296478793-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>296478793</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Beyond disguisting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These rooms are not even a budget room. They are disgusting. From the moment I opened the door to my room the smell was horrible, there was sticky stuff on my floor. I wore my thongs everywhere including the shower right to bed. They hotel staff were so unhelpful and spoke pour English.The hotel is located near nothing. It's a $50 cab ride to just about anywhere and the staff had no interesting in helping find transport. Dallas/Fort Worth is very spread out has no public transportation,But has a lot to offer as far as tourism and shopping.  Plan your trip wisely. And do not stay here. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r296112339-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>296112339</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Worst hotel experience ever!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elevator didn't work-and I had my 71 year old mom with me. The phone in the room didn't work AND some tenant before us had stuck a chewed piece of gum on the end table and it was still there. Housekeeping didn't refill towels or toilet paper-we stayed 3 nights! On the last night of our stay, the managers family members who were staying next door to us aggressively tried repeatedly to enter our room at 12:30 am frightening my mom and I and continued to do so inside their room on the adjoining door to our room. When I called the </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r293120238-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>293120238</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r289363138-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>289363138</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r288886243-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>288886243</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>The shower curtain had what looked like mold. Tub was...</t>
+  </si>
+  <si>
+    <t>The shower curtain had what looked like mold. Tub was pilling. Tub plug missing(found at under tolet while picking up and checking before leaving) holes were in bed spreads.  Corners and around edges were very durty. Window wasn't cleaned. Key was turned off before both days even begore check out. No fruit, Walffles dough tasted old and rubbery, syrup bottle was very sticky. I came down second day to see lady pouring syrup into the bottle that still had syrup in it. She put it out to use. I was the first to use it and it was thick with sticky syrup all over side and front of bottle. Not even washed off. Breakfast room was locked up therefore no place to set down with kids. Over all not a pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>The shower curtain had what looked like mold. Tub was pilling. Tub plug missing(found at under tolet while picking up and checking before leaving) holes were in bed spreads.  Corners and around edges were very durty. Window wasn't cleaned. Key was turned off before both days even begore check out. No fruit, Walffles dough tasted old and rubbery, syrup bottle was very sticky. I came down second day to see lady pouring syrup into the bottle that still had syrup in it. She put it out to use. I was the first to use it and it was thick with sticky syrup all over side and front of bottle. Not even washed off. Breakfast room was locked up therefore no place to set down with kids. Over all not a pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r288170761-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>288170761</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Showing family Dallas </t>
+  </si>
+  <si>
+    <t>I brought my kids and a foreign exchange student to see some sights in Dallas. We picked Microtel for the price and the morning breakfast. Rooms were ok, as expected. The breakfast was pathetic. No staff watching food. Ran out of food both days and ran out of coffee, juice, and milk. No bowls for cereal. Come on! Manger/owners should care a little!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r284452397-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>284452397</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>Very great place! I had an amazing time staying here and the pool was very very clean my kids enjoyed swimming and had a blast! The room service is outstanding &amp; they have a wonderful rate for the rooms. I will definitely come back to this place again!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r283471495-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>283471495</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Reminds Me of a Motel 6</t>
+  </si>
+  <si>
+    <t>Now I do stay at Motel 6 sometimes, when necessary.  My room was worn and dirty.  They claim to. E a non smoking hotel, but the hallway and room were thick with tobacco odor.  There were holes in my bedsheets, they were worn and pilled, rough to sleep on.  The staff was nice, tried hard and had good attitudes.  I was stranded at DFW, and was glad for any refuge at that point.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r283218900-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>283218900</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Spartan digs close to DFW</t>
+  </si>
+  <si>
+    <t>Due to American Airlines incompetence, I missed my flight. AA uses this hotel to book flyers that miss connections due to airline problems.It is a fairly standard, no frills, basic motel. That being said, it was clean, quiet with no room noise, and the beds were comfortable.The night manager gets a special shout out for being so friendly and efficient. She had me all set in less than 1 minute. There was a breakfast bar with waffles, juice, coffee, pastries, etc. included. Wifi was free and speed was average. A brief note for other American Airlines customers who end up here. American will give you a taxi voucher card to get to and from here. I don't know what the taxi drivers get from American, as it must not be very much. Both of the drivers started grumbling when I gave them the voucher, even when they both knew about it in advance.MoreShow less</t>
+  </si>
+  <si>
+    <t>Due to American Airlines incompetence, I missed my flight. AA uses this hotel to book flyers that miss connections due to airline problems.It is a fairly standard, no frills, basic motel. That being said, it was clean, quiet with no room noise, and the beds were comfortable.The night manager gets a special shout out for being so friendly and efficient. She had me all set in less than 1 minute. There was a breakfast bar with waffles, juice, coffee, pastries, etc. included. Wifi was free and speed was average. A brief note for other American Airlines customers who end up here. American will give you a taxi voucher card to get to and from here. I don't know what the taxi drivers get from American, as it must not be very much. Both of the drivers started grumbling when I gave them the voucher, even when they both knew about it in advance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r275121729-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>275121729</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Dirty and Outdated</t>
+  </si>
+  <si>
+    <t>We wound up at Microtel because we missed a connecting flight due to mechanical problems so American Airlines put us (and many other travelers) up there. Unlucky us.
+The concierge in the Admiral's Club called Microtel around 9:35 pm to make sure their shuttle driver knew to pick us up. We headed out to the pickup spot and saw the shuttle go by as we were descending some stairs at about 9:50. Figuring it would be back, we made our way to the pick-up spot and waited. For an hour. We called the hotel and were told they stopped running shuttles at 10 pm. So, one $30 cab ride later, we arrived at the hotel.
+The front desk person was friendly.
+We headed up to our room and noticed that the hallways were grimy, the elevator was filthy and the air smelled like stale cigarette smoke. The room had an old TV, the walls were damaged, carpeting worn and had an unpleasant odor. Too tired to complain, we slept. When we woke up, I headed down around 8:30 am to the continental breakfast to grab some fruit and tea but there wasn't any. The offerings were so pathetic that we decided to eat at the Denny's where we were regaled by stranded passenger horror stories. 
+If you have an early flight out and get stuck in this hotel, you'll have to take a cab because their shuttle doesn't start running...We wound up at Microtel because we missed a connecting flight due to mechanical problems so American Airlines put us (and many other travelers) up there. Unlucky us.The concierge in the Admiral's Club called Microtel around 9:35 pm to make sure their shuttle driver knew to pick us up. We headed out to the pickup spot and saw the shuttle go by as we were descending some stairs at about 9:50. Figuring it would be back, we made our way to the pick-up spot and waited. For an hour. We called the hotel and were told they stopped running shuttles at 10 pm. So, one $30 cab ride later, we arrived at the hotel.The front desk person was friendly.We headed up to our room and noticed that the hallways were grimy, the elevator was filthy and the air smelled like stale cigarette smoke. The room had an old TV, the walls were damaged, carpeting worn and had an unpleasant odor. Too tired to complain, we slept. When we woke up, I headed down around 8:30 am to the continental breakfast to grab some fruit and tea but there wasn't any. The offerings were so pathetic that we decided to eat at the Denny's where we were regaled by stranded passenger horror stories. If you have an early flight out and get stuck in this hotel, you'll have to take a cab because their shuttle doesn't start running until 10am. After the terrifying shuttle trip back to the airport, I was almost glad we didn't have to experience it in the dark.Given the choice of staying here again or sleeping at the airport it would be a difficult decision.MoreShow less</t>
+  </si>
+  <si>
+    <t>We wound up at Microtel because we missed a connecting flight due to mechanical problems so American Airlines put us (and many other travelers) up there. Unlucky us.
+The concierge in the Admiral's Club called Microtel around 9:35 pm to make sure their shuttle driver knew to pick us up. We headed out to the pickup spot and saw the shuttle go by as we were descending some stairs at about 9:50. Figuring it would be back, we made our way to the pick-up spot and waited. For an hour. We called the hotel and were told they stopped running shuttles at 10 pm. So, one $30 cab ride later, we arrived at the hotel.
+The front desk person was friendly.
+We headed up to our room and noticed that the hallways were grimy, the elevator was filthy and the air smelled like stale cigarette smoke. The room had an old TV, the walls were damaged, carpeting worn and had an unpleasant odor. Too tired to complain, we slept. When we woke up, I headed down around 8:30 am to the continental breakfast to grab some fruit and tea but there wasn't any. The offerings were so pathetic that we decided to eat at the Denny's where we were regaled by stranded passenger horror stories. 
+If you have an early flight out and get stuck in this hotel, you'll have to take a cab because their shuttle doesn't start running...We wound up at Microtel because we missed a connecting flight due to mechanical problems so American Airlines put us (and many other travelers) up there. Unlucky us.The concierge in the Admiral's Club called Microtel around 9:35 pm to make sure their shuttle driver knew to pick us up. We headed out to the pickup spot and saw the shuttle go by as we were descending some stairs at about 9:50. Figuring it would be back, we made our way to the pick-up spot and waited. For an hour. We called the hotel and were told they stopped running shuttles at 10 pm. So, one $30 cab ride later, we arrived at the hotel.The front desk person was friendly.We headed up to our room and noticed that the hallways were grimy, the elevator was filthy and the air smelled like stale cigarette smoke. The room had an old TV, the walls were damaged, carpeting worn and had an unpleasant odor. Too tired to complain, we slept. When we woke up, I headed down around 8:30 am to the continental breakfast to grab some fruit and tea but there wasn't any. The offerings were so pathetic that we decided to eat at the Denny's where we were regaled by stranded passenger horror stories. If you have an early flight out and get stuck in this hotel, you'll have to take a cab because their shuttle doesn't start running until 10am. After the terrifying shuttle trip back to the airport, I was almost glad we didn't have to experience it in the dark.Given the choice of staying here again or sleeping at the airport it would be a difficult decision.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r273200438-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>273200438</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Missed a Flight.. Shouldve slept i airport</t>
+  </si>
+  <si>
+    <t>Wei missed a flight at DFW due to poor weather, and were given vouchers by airline to sleep overnight.  Waited with 12 other passengers for courtesy van. Van never came. Had to get cabs to hotel.  Got to hotel, checked into room with relative ease.  Went to room with wife, and noticed immediately a stain on the bedspread.  And another on the sheets.  I know that accomodations for layovers are as needed, but this was awful.  Asked for another room, which was just as bad, not clean and uncomfortable.  Dirty.  No other rooms available.  Was afraid to touch anything.  The good news was that we checked in around midnight, and our flight was at 6:50.  Only there for a few hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>Wei missed a flight at DFW due to poor weather, and were given vouchers by airline to sleep overnight.  Waited with 12 other passengers for courtesy van. Van never came. Had to get cabs to hotel.  Got to hotel, checked into room with relative ease.  Went to room with wife, and noticed immediately a stain on the bedspread.  And another on the sheets.  I know that accomodations for layovers are as needed, but this was awful.  Asked for another room, which was just as bad, not clean and uncomfortable.  Dirty.  No other rooms available.  Was afraid to touch anything.  The good news was that we checked in around midnight, and our flight was at 6:50.  Only there for a few hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r272340436-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>272340436</t>
+  </si>
+  <si>
+    <t>05/16/2015</t>
+  </si>
+  <si>
+    <t>they'll strand you at the airport</t>
+  </si>
+  <si>
+    <t>We were sent here for the night by american airlines after they delayed our flight for security reasons and we missed connections.   The good thing is they have very comfortable beds and really comfortable room layout and lighting.  But the showerhead was stuck pointed at the wall, the fixtures were rickety, and there were cob webs. At breakfast there was no fruit or yoghurt, and the whole place was very messy.   This is a low rent place so the beds were a welcome surpirse.  Forget about ground transportation from the airport.  We waited 30 minutes for the shuttle and then called back and were told the shuttle driver came, picked up other people and went back to the hotel.  We asked if we would be picked up next and the woman said it depended on how many people were picked up before us.  She suggested we get a cab, which we did.  In the morning their shuttle runs only between 6-7, so after the woman told us to leave at 9:30am to get our flight we called a cab company for the next morning.  While waiting for our cab, a huge van pulled up which was the shared cab the hotel had arranged for a collected group of guests.  When I asked the same woman from the previous night, why we weren't offered this option, she looked dumbfounded and said she didn't know when we wanted to leave.  Apparently they...We were sent here for the night by american airlines after they delayed our flight for security reasons and we missed connections.   The good thing is they have very comfortable beds and really comfortable room layout and lighting.  But the showerhead was stuck pointed at the wall, the fixtures were rickety, and there were cob webs. At breakfast there was no fruit or yoghurt, and the whole place was very messy.   This is a low rent place so the beds were a welcome surpirse.  Forget about ground transportation from the airport.  We waited 30 minutes for the shuttle and then called back and were told the shuttle driver came, picked up other people and went back to the hotel.  We asked if we would be picked up next and the woman said it depended on how many people were picked up before us.  She suggested we get a cab, which we did.  In the morning their shuttle runs only between 6-7, so after the woman told us to leave at 9:30am to get our flight we called a cab company for the next morning.  While waiting for our cab, a huge van pulled up which was the shared cab the hotel had arranged for a collected group of guests.  When I asked the same woman from the previous night, why we weren't offered this option, she looked dumbfounded and said she didn't know when we wanted to leave.  Apparently they do this for their guests, but not us.  I know she was busy and apparently the only person holding down the desk, but we ended up paying more for the cab trips than the cost of the room.  We should have just booked ourselves elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were sent here for the night by american airlines after they delayed our flight for security reasons and we missed connections.   The good thing is they have very comfortable beds and really comfortable room layout and lighting.  But the showerhead was stuck pointed at the wall, the fixtures were rickety, and there were cob webs. At breakfast there was no fruit or yoghurt, and the whole place was very messy.   This is a low rent place so the beds were a welcome surpirse.  Forget about ground transportation from the airport.  We waited 30 minutes for the shuttle and then called back and were told the shuttle driver came, picked up other people and went back to the hotel.  We asked if we would be picked up next and the woman said it depended on how many people were picked up before us.  She suggested we get a cab, which we did.  In the morning their shuttle runs only between 6-7, so after the woman told us to leave at 9:30am to get our flight we called a cab company for the next morning.  While waiting for our cab, a huge van pulled up which was the shared cab the hotel had arranged for a collected group of guests.  When I asked the same woman from the previous night, why we weren't offered this option, she looked dumbfounded and said she didn't know when we wanted to leave.  Apparently they...We were sent here for the night by american airlines after they delayed our flight for security reasons and we missed connections.   The good thing is they have very comfortable beds and really comfortable room layout and lighting.  But the showerhead was stuck pointed at the wall, the fixtures were rickety, and there were cob webs. At breakfast there was no fruit or yoghurt, and the whole place was very messy.   This is a low rent place so the beds were a welcome surpirse.  Forget about ground transportation from the airport.  We waited 30 minutes for the shuttle and then called back and were told the shuttle driver came, picked up other people and went back to the hotel.  We asked if we would be picked up next and the woman said it depended on how many people were picked up before us.  She suggested we get a cab, which we did.  In the morning their shuttle runs only between 6-7, so after the woman told us to leave at 9:30am to get our flight we called a cab company for the next morning.  While waiting for our cab, a huge van pulled up which was the shared cab the hotel had arranged for a collected group of guests.  When I asked the same woman from the previous night, why we weren't offered this option, she looked dumbfounded and said she didn't know when we wanted to leave.  Apparently they do this for their guests, but not us.  I know she was busy and apparently the only person holding down the desk, but we ended up paying more for the cab trips than the cost of the room.  We should have just booked ourselves elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r266077790-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>266077790</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r264967085-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>264967085</t>
+  </si>
+  <si>
+    <t>04/10/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r263308775-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>263308775</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r258842621-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>258842621</t>
+  </si>
+  <si>
+    <t>03/10/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r258550497-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>258550497</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Amazed by the nastiness and neglect</t>
+  </si>
+  <si>
+    <t>1. Begrudgingly gave us a 9am shuttle to the airport after explaining that 7 was too early and 1030 too late.    2.  Soda machines out of everything but 7up and only took coins. 3. Unidentified bugs in room.  3. Lots of long black hair in bedding .  4. Room outdated (severely).  5. carpet sticky/greasy.   6. guests in breakfast area acting beligerant.  7. had to ask for shampoo at desk.  8 Hotel exterior fine, interior outdated and beaten up.  9. very few electrical outlets in room and inconveniently placed.   10.  Night desk attendant was nice and courteous.   11. shuttle dropped us off at wrong end of terminal resulting in a 15 minute extra walk.  12.  Have stayed at several microtel in the past and have had not issues. 13. breakfast was sooooo marginal.  Only sweetener for coffee was sugar and pink packets (sweet and low).   bread was stale.  milk seemed watered down.  selection was minimal.... coffee was yuckily weak.MoreShow less</t>
+  </si>
+  <si>
+    <t>1. Begrudgingly gave us a 9am shuttle to the airport after explaining that 7 was too early and 1030 too late.    2.  Soda machines out of everything but 7up and only took coins. 3. Unidentified bugs in room.  3. Lots of long black hair in bedding .  4. Room outdated (severely).  5. carpet sticky/greasy.   6. guests in breakfast area acting beligerant.  7. had to ask for shampoo at desk.  8 Hotel exterior fine, interior outdated and beaten up.  9. very few electrical outlets in room and inconveniently placed.   10.  Night desk attendant was nice and courteous.   11. shuttle dropped us off at wrong end of terminal resulting in a 15 minute extra walk.  12.  Have stayed at several microtel in the past and have had not issues. 13. breakfast was sooooo marginal.  Only sweetener for coffee was sugar and pink packets (sweet and low).   bread was stale.  milk seemed watered down.  selection was minimal.... coffee was yuckily weak.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r258077902-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>258077902</t>
+  </si>
+  <si>
+    <t>03/06/2015</t>
+  </si>
+  <si>
+    <t>Run-down and Grungy -- I'd Rather Sleep in the Airport</t>
+  </si>
+  <si>
+    <t>Thanks to flight delays by American Airlines (which in my experience happens frequently), I received a voucher to stay at the Microtel by the DFW Airport. The man at the front desk was friendly and empathetic to my travel-weary state. But the place was run-down and dirty. There were hairs in the bathroom, spots on the mirror, and the toilet rim wasn't clean. I wished I had stayed at the airport -- it would have been cleaner.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r243676651-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>243676651</t>
+  </si>
+  <si>
+    <t>12/09/2014</t>
+  </si>
+  <si>
+    <t>Rude Awakening</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The room was okay for the price, but I was awakened at 4:30 am by screams from my daughter that there were ticks in her bed. There was actually only 1 tick in her bed, but we found 2 more crawling on the floor.  </t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r243576742-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>243576742</t>
+  </si>
+  <si>
+    <t>12/08/2014</t>
+  </si>
+  <si>
+    <t>MICROHOTEL NEAR THE DFW AIRPORT!</t>
+  </si>
+  <si>
+    <t>If you want a high quality hotel stay at an exceptionally reasonable price. This hotel is ! Just completed my 4th stay and it is my go to hotel when in the DFW area. Clean, comfortable, nice buffet breakfast with Hot Texas shaped pancakes. fun! The management and staff could not be any more accomadating than they are! This Microhotel by Wyndham is sweet find!  Try it you will feel comfortable there and close to all the necessities of a large city. Save room for me!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r243246604-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>243246604</t>
+  </si>
+  <si>
+    <t>12/06/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r237654410-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>237654410</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>caring &amp; compassionate hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff went above and beyond during a difficult tIme for our family as my father faced his end of life journey with hospice care at HEB Hospital. Convenient location, cooperative housekeeping, caring front desk staff on all shifts as we came and went for our 10 day stay.  We appreciate the extra kindness Brad Patel and other staff showed to our family during such a difficult time.  Thank you all.  I would highly recommend this hotel,  clean,  comfortable and caring staff - just what we were looking for!   </t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r236099615-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>236099615</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>too loud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dog was barking all night long and it was impossible to sleep....dog was on the same floor but at the other end...totally unacceptable  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r235430918-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>235430918</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Ashtray</t>
+  </si>
+  <si>
+    <t>We stayed here on an American Airlines voucher after our flight delay caused us to miss all connecting flights home. The sign in front says the hotel is a Wyndham property--but it's a far cry from what you would expect from that chain. The rooms are dark and dingy, but the worst part is everything is permeated with a stale cigarette smell. There are no-smoking signs everywhere, so I assume that the no-smoking rule is relatively new. The building needs a deep cleaning--or replacement--of drapes, carpets, etc. to make this a real no-smoking property. On a positive note, the front desk clerk was extremely friendly and helpful (saving the hotel from a 1 circle review). If you're here without a car, you can make do since there's a Starbucks and Denny's within an easy walk. But I would never stay here voluntarily and, if offered a voucher for this place or someplace else, I'd give serious consideration to someplace else.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here on an American Airlines voucher after our flight delay caused us to miss all connecting flights home. The sign in front says the hotel is a Wyndham property--but it's a far cry from what you would expect from that chain. The rooms are dark and dingy, but the worst part is everything is permeated with a stale cigarette smell. There are no-smoking signs everywhere, so I assume that the no-smoking rule is relatively new. The building needs a deep cleaning--or replacement--of drapes, carpets, etc. to make this a real no-smoking property. On a positive note, the front desk clerk was extremely friendly and helpful (saving the hotel from a 1 circle review). If you're here without a car, you can make do since there's a Starbucks and Denny's within an easy walk. But I would never stay here voluntarily and, if offered a voucher for this place or someplace else, I'd give serious consideration to someplace else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r233088314-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>233088314</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Horrible expierence</t>
+  </si>
+  <si>
+    <t>As soon as I got there I was so disgusted by the room. The bed sheets, the couch, and the ironing board had black and yellow stains on them. I had to go buy my own bed sheets because I felt so nasty sleeping on that bed. I got home 2 days after and come to find out I have bed bugs which obviously came from sleeping in this nasty place. I do not recommend AT ALL!!!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r230590865-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>230590865</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r230052225-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>230052225</t>
+  </si>
+  <si>
+    <t>09/21/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r225130185-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>225130185</t>
+  </si>
+  <si>
+    <t>08/28/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r223368142-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>223368142</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r218016342-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>218016342</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r210105023-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>210105023</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>A case for Hotel Impossible!</t>
+  </si>
+  <si>
+    <t>What a dump! Barely there A/C, sweating to death in my room...blood or make up stains on my pillow case, cigarette burns on bedspread, phone did not work, pee or some other fluids on toilet paper holder, cigarette burns in bathroom sink, the bed collapsed when I sat on the corner..odor everywhere...I wouldn't let my 2 pet mastiffs stay here! And why am I here at 1am on a Thursday night? because I am an American Airlines distressed passenger..,obviously not an important passenger in their eyes and if my flight wasn't in 6 hours, I would have left already...do not stay here! Shame on Wyndham for putting there name on this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>What a dump! Barely there A/C, sweating to death in my room...blood or make up stains on my pillow case, cigarette burns on bedspread, phone did not work, pee or some other fluids on toilet paper holder, cigarette burns in bathroom sink, the bed collapsed when I sat on the corner..odor everywhere...I wouldn't let my 2 pet mastiffs stay here! And why am I here at 1am on a Thursday night? because I am an American Airlines distressed passenger..,obviously not an important passenger in their eyes and if my flight wasn't in 6 hours, I would have left already...do not stay here! Shame on Wyndham for putting there name on this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r210095818-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>210095818</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r209888321-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>209888321</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r202324972-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>202324972</t>
+  </si>
+  <si>
+    <t>04/22/2014</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r199961123-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>199961123</t>
+  </si>
+  <si>
+    <t>04/05/2014</t>
+  </si>
+  <si>
+    <t>microtel dfw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This room had places in the carpet that were patched-in which looked very tacky. The couch had several holes in it. It looked like it had been slit with a knife several times. It too looked very tacky. When I took a shower in the a.m. the water was piping hot and adjusting the valve did nothing to change the temperature. So, I got to take a very hot shower that morning. Overall, I really wasn't impressed with this stay. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r198568973-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>198568973</t>
+  </si>
+  <si>
+    <t>03/24/2014</t>
+  </si>
+  <si>
+    <t>we found this facility to be quite nice except for the odor...</t>
+  </si>
+  <si>
+    <t>we found this facility to be quite nice except for the odor in the room when we first arrived. It smelled like it hadn't been used in quite a while. The room appeared very clean, the beds were wonderful, all was good except for the smell. We turned the air conditioner on before leaving for dinner and when we returned it was better.  This problem will have bearing on my over all report.  We were VERY pleased by the register and found her extremely helpful with or on line reservations. I had a problem with on line registration and when I called her she was very courteous and helpful.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>we found this facility to be quite nice except for the odor in the room when we first arrived. It smelled like it hadn't been used in quite a while. The room appeared very clean, the beds were wonderful, all was good except for the smell. We turned the air conditioner on before leaving for dinner and when we returned it was better.  This problem will have bearing on my over all report.  We were VERY pleased by the register and found her extremely helpful with or on line reservations. I had a problem with on line registration and when I called her she was very courteous and helpful.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r195433382-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>195433382</t>
+  </si>
+  <si>
+    <t>02/26/2014</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r190416153-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>190416153</t>
+  </si>
+  <si>
+    <t>01/10/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r184101005-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>184101005</t>
+  </si>
+  <si>
+    <t>11/08/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r181890365-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>181890365</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r181709041-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>181709041</t>
+  </si>
+  <si>
+    <t>10/20/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r179956680-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>179956680</t>
+  </si>
+  <si>
+    <t>10/06/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r174632306-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>174632306</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>Good Place to Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great customer service and friendly staff. The beds and pillows were very comfy. For the size of our room we got a great price. Very clean. For breakfast they had waffles, muffins, danish and cereals. Overall our stay was nice and pleasant. </t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r171540582-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>171540582</t>
+  </si>
+  <si>
+    <t>08/09/2013</t>
+  </si>
+  <si>
+    <t>Stay here often.</t>
+  </si>
+  <si>
+    <t>This is an o.k. place to stay.  We stay here often when visiting our kids. It is inexpensive compared to others around so for the money it is a good choice.  Beds are good, beddidng nice, carpet looks good lots of good lighting.  It certainly isn't a top notch place but we would rather save when we are in the room just to sleep.  Breakfast is normal continental breakfast but does include cereal, rolls, bagels and muffins fresh fruit and make yourself waffles.  Nothing hot.  If you are not expecting elegance, we recommend it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r171388038-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>171388038</t>
+  </si>
+  <si>
+    <t>08/08/2013</t>
+  </si>
+  <si>
+    <t>Horrible!!</t>
+  </si>
+  <si>
+    <t>The Floor had Cookies on it. I didn't even want To Walk on the floor without my shoes, yet alone Some socks. The whole floor reeked of Smoke even though I asked for a Non Smoking Room. The Sheets had Cigarette burns in it and the bathroom was so nasty I didn't want To take a shower. This Hotel Was Horrible. I think I Would have been better off at the Quality Inn Next door. Would Not come back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r166907436-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>166907436</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Becky S</t>
+  </si>
+  <si>
+    <t>My husband, myself and my son stayed at this hotel. Our room was a King bed with a pull out. When we went to make up the pull-out for my son, the sheets were still on the mattress and were stuck to it. It looked like it hadn't been cleaned in months. We carefully pulled off all the sheets and under were yellow stains on the mattress. I went down to the front dest to ask for clean sheets and a disinfectant spray. The clueless girls gives me Fabreze, which doesn't kill any bateria. The "Non-smoking" room stunk of smoke and the mini fridge smelled like old bait. This was not a pleasant experience. We will not stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>My husband, myself and my son stayed at this hotel. Our room was a King bed with a pull out. When we went to make up the pull-out for my son, the sheets were still on the mattress and were stuck to it. It looked like it hadn't been cleaned in months. We carefully pulled off all the sheets and under were yellow stains on the mattress. I went down to the front dest to ask for clean sheets and a disinfectant spray. The clueless girls gives me Fabreze, which doesn't kill any bateria. The "Non-smoking" room stunk of smoke and the mini fridge smelled like old bait. This was not a pleasant experience. We will not stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r163297818-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>163297818</t>
+  </si>
+  <si>
+    <t>06/07/2013</t>
+  </si>
+  <si>
+    <t>I loved the Microtel Inn.The man who picked me up from the...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I loved the Microtel Inn.The man who picked me up from the Airport was very nice.The woman who checked me in was very nice.The pool was wonderful. I loved the Inn. My room was very nice, but really dirty.The shower was not clean, the curtain dirty and the dresser draws dirty. The ca </t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r163006567-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>163006567</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>Trip</t>
+  </si>
+  <si>
+    <t>I traveled from Ohio over 1000 miles only to receive terrible service.  The hotel smelled smoky upon arrival.  We checked into the room.  There were ants all over the bathroom floor and walls.  Burn marks and holes in the carpet.  We took  pictures with our cell phone.  We informed the receptionist and our room was upgraded to a Queen Suite.  We still had to request that the room be re cleaned.  The carpet was dirty needed to be vacuumed and the ironing board was broken unable to use.  We spoke to the Manager the next morning and he only credited our bill $20.00 for the entire 3 night stay.    At check out my debit card was swiped for $166.10. Two days later I noticed another charge from Microtel in the amount of $129.68.  I called and spoke to Brad the Manager.  He stated that he was the only one that does the transactions and that he did not charge my card twice.  My bank was the one that did it.  I called the bank they informed me that the additional charge was posted to my account and that Microtel should contact their merchant and resolve the issue.  I check out of the hotel on Sunday 6/2.  As of today 6/4 my card has not been reimbursed for the additional charges.  I am trying to be patient but this is ridiculous.  I will be traveling to the Euless area at least...I traveled from Ohio over 1000 miles only to receive terrible service.  The hotel smelled smoky upon arrival.  We checked into the room.  There were ants all over the bathroom floor and walls.  Burn marks and holes in the carpet.  We took  pictures with our cell phone.  We informed the receptionist and our room was upgraded to a Queen Suite.  We still had to request that the room be re cleaned.  The carpet was dirty needed to be vacuumed and the ironing board was broken unable to use.  We spoke to the Manager the next morning and he only credited our bill $20.00 for the entire 3 night stay.    At check out my debit card was swiped for $166.10. Two days later I noticed another charge from Microtel in the amount of $129.68.  I called and spoke to Brad the Manager.  He stated that he was the only one that does the transactions and that he did not charge my card twice.  My bank was the one that did it.  I called the bank they informed me that the additional charge was posted to my account and that Microtel should contact their merchant and resolve the issue.  I check out of the hotel on Sunday 6/2.  As of today 6/4 my card has not been reimbursed for the additional charges.  I am trying to be patient but this is ridiculous.  I will be traveling to the Euless area at least two more times this year but I will not be staying at this hotel.  I have stayed at Microtel before and have had a wonderful experience.  That is why I chose this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>I traveled from Ohio over 1000 miles only to receive terrible service.  The hotel smelled smoky upon arrival.  We checked into the room.  There were ants all over the bathroom floor and walls.  Burn marks and holes in the carpet.  We took  pictures with our cell phone.  We informed the receptionist and our room was upgraded to a Queen Suite.  We still had to request that the room be re cleaned.  The carpet was dirty needed to be vacuumed and the ironing board was broken unable to use.  We spoke to the Manager the next morning and he only credited our bill $20.00 for the entire 3 night stay.    At check out my debit card was swiped for $166.10. Two days later I noticed another charge from Microtel in the amount of $129.68.  I called and spoke to Brad the Manager.  He stated that he was the only one that does the transactions and that he did not charge my card twice.  My bank was the one that did it.  I called the bank they informed me that the additional charge was posted to my account and that Microtel should contact their merchant and resolve the issue.  I check out of the hotel on Sunday 6/2.  As of today 6/4 my card has not been reimbursed for the additional charges.  I am trying to be patient but this is ridiculous.  I will be traveling to the Euless area at least...I traveled from Ohio over 1000 miles only to receive terrible service.  The hotel smelled smoky upon arrival.  We checked into the room.  There were ants all over the bathroom floor and walls.  Burn marks and holes in the carpet.  We took  pictures with our cell phone.  We informed the receptionist and our room was upgraded to a Queen Suite.  We still had to request that the room be re cleaned.  The carpet was dirty needed to be vacuumed and the ironing board was broken unable to use.  We spoke to the Manager the next morning and he only credited our bill $20.00 for the entire 3 night stay.    At check out my debit card was swiped for $166.10. Two days later I noticed another charge from Microtel in the amount of $129.68.  I called and spoke to Brad the Manager.  He stated that he was the only one that does the transactions and that he did not charge my card twice.  My bank was the one that did it.  I called the bank they informed me that the additional charge was posted to my account and that Microtel should contact their merchant and resolve the issue.  I check out of the hotel on Sunday 6/2.  As of today 6/4 my card has not been reimbursed for the additional charges.  I am trying to be patient but this is ridiculous.  I will be traveling to the Euless area at least two more times this year but I will not be staying at this hotel.  I have stayed at Microtel before and have had a wonderful experience.  That is why I chose this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r161039356-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>161039356</t>
+  </si>
+  <si>
+    <t>05/17/2013</t>
+  </si>
+  <si>
+    <t>Great budget accommodation</t>
+  </si>
+  <si>
+    <t>After seeing many budget hotels in other parts of the world, this place struck us as great value for the money. Especially with their deal for 3 nights, this made it amazingly priced for a good location, close to airport and with included breakfast. Shopping centre 2 only minutes walk. They helped us organise a rental car without the airport fees as well as answering any questions we had about that area. Rooms spacious with couch etc. Overall, just all round good value.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r161018707-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>161018707</t>
+  </si>
+  <si>
+    <t>Clean suite, quiet location</t>
+  </si>
+  <si>
+    <t>The suite was clean, although the layout of the room made half of it unusable space for a single occupant.  The bed was clean and comfortable, the A/C worked fine, and the [CRT] television worked fine - although there were HBO fliers in the room both channels marked as HBO were offline.  Free WI-FI was a click and forget process unlike other hotels that require a constant "click to connect" browser interface.  Staff was helpful.  Washer and drier were clean and worked fine.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r159605892-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>159605892</t>
+  </si>
+  <si>
+    <t>05/04/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r156181417-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>156181417</t>
+  </si>
+  <si>
+    <t>03/31/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r156003330-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>156003330</t>
+  </si>
+  <si>
+    <t>03/29/2013</t>
+  </si>
+  <si>
+    <t>Great Service and Wonderful Staff</t>
+  </si>
+  <si>
+    <t>My recent stay and Microtel Inn &amp; Suites at Euless/DFW was great.   Brad and Karen at the front desk provided excellent service from reservations thru check-out, they were wonderful.  I would stay there again and recommend it to my friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r155606606-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>155606606</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Suited our needs just fine.</t>
+  </si>
+  <si>
+    <t>The staff was very helpful and sincerely interested in our good experience.  We invested our trip money in nice hotels in Belize, and really just wanted a place to sleep, shower, and go on our way to our dream vacation refreshed, and do the same on our way home a week later. The lobby and room was clean and comfortable. The wake up call and breakfast was perfect, with healthy options, and the shuttle driver called us promptly as we were a bit late, rather than leave us behind. The scheduled shuttle to and from the airport was really convenient, and our car was safe the week we were gone.  On our way back, a group they accommodated last minute because they got stuck in Dallas checked in with us, so the shuttle driver checked us in to keep us from waiting for them, a nice display of efficient human resources!  It wasn't the 5 star resort in Belize we were on our way to, but it suited our needs just fine, and left us more money for the dream trip!  We will surely look them up on our way to Costa Rica next trip!MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was very helpful and sincerely interested in our good experience.  We invested our trip money in nice hotels in Belize, and really just wanted a place to sleep, shower, and go on our way to our dream vacation refreshed, and do the same on our way home a week later. The lobby and room was clean and comfortable. The wake up call and breakfast was perfect, with healthy options, and the shuttle driver called us promptly as we were a bit late, rather than leave us behind. The scheduled shuttle to and from the airport was really convenient, and our car was safe the week we were gone.  On our way back, a group they accommodated last minute because they got stuck in Dallas checked in with us, so the shuttle driver checked us in to keep us from waiting for them, a nice display of efficient human resources!  It wasn't the 5 star resort in Belize we were on our way to, but it suited our needs just fine, and left us more money for the dream trip!  We will surely look them up on our way to Costa Rica next trip!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r154382187-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>154382187</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Lay Over in TX</t>
+  </si>
+  <si>
+    <t>The room was okay for an overnight stay. I did not have any  of my luggage because it was on the fligjht before me. The shower was dirty. It had hair in it and most of the linen was stained. The lights in room had tons of dust hanging from them.  I did not like the fact that was hanging over he bed I was sleeping. The employee at the front desk called me that night ti make sure she had my wake-up call correct and I never recieved a call. This hotel is okay for a layover but I would not not stay here more than one night. The staff was very nice but the faciilities are gross.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>The room was okay for an overnight stay. I did not have any  of my luggage because it was on the fligjht before me. The shower was dirty. It had hair in it and most of the linen was stained. The lights in room had tons of dust hanging from them.  I did not like the fact that was hanging over he bed I was sleeping. The employee at the front desk called me that night ti make sure she had my wake-up call correct and I never recieved a call. This hotel is okay for a layover but I would not not stay here more than one night. The staff was very nice but the faciilities are gross.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r154370729-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>154370729</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r154328471-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>154328471</t>
+  </si>
+  <si>
+    <t>Soon as I walked in the lobby the smell of smoke hit me...</t>
+  </si>
+  <si>
+    <t>Soon as I walked in the lobby the smell of smoke hit me. Older hotel, needs updatingBut was clean. Only problem was the smell of smoke throughout , even in my nonsmoking room. Smelled like a casino!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r151494150-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>151494150</t>
+  </si>
+  <si>
+    <t>02/05/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r147339477-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>147339477</t>
+  </si>
+  <si>
+    <t>12/12/2012</t>
+  </si>
+  <si>
+    <t>Great price and very helpful staff</t>
+  </si>
+  <si>
+    <t>The location is difficult to get around without a car but so is everywhere in Texas, the lack of mass transportation demands visitors procure a rental vehicle during their stay. The great part is that Enterprise "We'll Pick you up!" is pretty much right next door, convenient enough that you can drop off the car in the morning in the drop box and walk back to your motel. The hotel also provides airport transportation service which is a great bonus. I am not sure why someone complained about the transportation service because I found it very easy to use. Call Microtel ahead of time and ask for Brad to pick you up at whatever time you will be arriving and tell him when you will need a ride to the airport and he will be there to assist. The room is very clean with minor issues but nothing major to complain about.  The room has 2 beds but it also has a cot by the window which can sleep one more. I think this property is worth the visit if you are on a budget.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>The location is difficult to get around without a car but so is everywhere in Texas, the lack of mass transportation demands visitors procure a rental vehicle during their stay. The great part is that Enterprise "We'll Pick you up!" is pretty much right next door, convenient enough that you can drop off the car in the morning in the drop box and walk back to your motel. The hotel also provides airport transportation service which is a great bonus. I am not sure why someone complained about the transportation service because I found it very easy to use. Call Microtel ahead of time and ask for Brad to pick you up at whatever time you will be arriving and tell him when you will need a ride to the airport and he will be there to assist. The room is very clean with minor issues but nothing major to complain about.  The room has 2 beds but it also has a cot by the window which can sleep one more. I think this property is worth the visit if you are on a budget.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r144616233-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>144616233</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Fine for the Price</t>
+  </si>
+  <si>
+    <t>Positives:The staff were outstanding.  These people were genuinely friendly and a pleasure to deal with.The breakfast, which was similar to the offerings at any Holiday Inn, was delicious.The location was great.  It was very easy getting on and off the freeway.Negatives:The major factor in my decision to pass on this hotel next time would definitely be the paper thin walls between rooms.  The people staying next door to me were not very loud, but from my bed I could hear every word of their conversation.  I can only imagine that I kept them up all night with my snoring.  On the other hand, this was one of the few negatives of the room. The room featured a cute little reading nook, but during my stay I had to keep the heavy curtains closed because there were no sheers to block the glaring light.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Positives:The staff were outstanding.  These people were genuinely friendly and a pleasure to deal with.The breakfast, which was similar to the offerings at any Holiday Inn, was delicious.The location was great.  It was very easy getting on and off the freeway.Negatives:The major factor in my decision to pass on this hotel next time would definitely be the paper thin walls between rooms.  The people staying next door to me were not very loud, but from my bed I could hear every word of their conversation.  I can only imagine that I kept them up all night with my snoring.  On the other hand, this was one of the few negatives of the room. The room featured a cute little reading nook, but during my stay I had to keep the heavy curtains closed because there were no sheers to block the glaring light.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r142427798-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>142427798</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r141743223-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>141743223</t>
+  </si>
+  <si>
+    <t>10/01/2012</t>
+  </si>
+  <si>
+    <t>Dallas stay</t>
+  </si>
+  <si>
+    <t>The 1-800 site stated we would have shuttle service, that was a key reason we choose Microtel, however this hotel did not offer the plan and after explainng it to the 1-800 office we got mis led and not a complete honest response, in short it lost our interest because we had to call management to get reembursed on taxi fees, which I have not recieved yet.Would i stay there again? Only if we know the area and do not need a proviced service that is not valid.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r135021047-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>135021047</t>
+  </si>
+  <si>
+    <t>07/21/2012</t>
+  </si>
+  <si>
+    <t>Sketchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed the weekend at the Microtel this past weekend. (the goods)  The Hotel itself was in decent shape, pool was nice and the room was clean.  (the bads). SKETCHY people in and out  and around the hotel.  The pop machine was pryed open and broken into while we were here.  The air conditioner in the room wasn't working at max capacity. The breakfast was way below average.  Bottom line, I would not recommend this hotel for families.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r28983528-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>28983528</t>
+  </si>
+  <si>
+    <t>04/28/2009</t>
+  </si>
+  <si>
+    <t>Great Budget Hotel!</t>
+  </si>
+  <si>
+    <t>My experience with this particular Microtel began with a very pleasant and courteous Front desk clerk who checked me into my room very quickly.  The room was great overall.  The bed was comfortable and the free wifi service worked flawlessly for me.  Also the cable tv had a good selection of channels including HBO.  I left pretty early in the morning but I had just enough time to eat some breakfast.  The selection here was what i expected, some bagels, danishes, cereal, and toast among other items.  Overall my stay at this hotel was very pleasant.</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r28983422-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>28983422</t>
+  </si>
+  <si>
+    <t>Good location, nice rooms</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for two nights before catching a flight out of DFW airport.  The rooms were clean and the staff was friendly and helpful about area attractions and restaurants.  They had a complimentary shuttle and the airport was only 5 minutes away which made things very convenient for me.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r17791517-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>17791517</t>
+  </si>
+  <si>
+    <t>07/11/2008</t>
+  </si>
+  <si>
+    <t>Consistently Satisfactory</t>
+  </si>
+  <si>
+    <t>I live near-by and we have stayed at this property several times  when we were remodeling or had an emergency at home.  The last occasion was earlier this week and again it was a clean, economical choice.  This is definitely a budget hotel but the rooms are large and the property is kept in excellent condition.  This hotel is located in the middle of the Dallas/Ft. Worth Metroplex very conveniently located by Six Flags, The Ballpark in Arlington and Lone Star Park.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r8656012-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>8656012</t>
+  </si>
+  <si>
+    <t>09/03/2007</t>
+  </si>
+  <si>
+    <t>dont put your family in harms way</t>
+  </si>
+  <si>
+    <t>please do not put your family in this place. maybe all are not the same but my experiece was a nightmare.  when we arived it was midnight the employes were messed up on something. they talked very dirty talk,  and were skinny dipping in pool, and if that was not bad enough the room was dirty with blood on pillows. so we left and they would not return all of my money even though we were only there for 30 minutes. that was my time at microhell</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r8269203-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>8269203</t>
+  </si>
+  <si>
+    <t>07/30/2007</t>
+  </si>
+  <si>
+    <t>Dirty, dated, Not up to Microtel standards</t>
+  </si>
+  <si>
+    <t>Supposed to stay 3 nights stayed one because of highway noise, dirty blankets, dirty carpet, dirty tub, limited breakfast.</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r4956657-Regency_Inn_Suites-Euless_Texas.html</t>
+  </si>
+  <si>
+    <t>4956657</t>
+  </si>
+  <si>
+    <t>04/09/2006</t>
+  </si>
+  <si>
+    <t>loved the microtel</t>
+  </si>
+  <si>
+    <t>I stayed at the micrtel,and I would recommend it toanyone. The staff was great.The room was clean,thebreakfast was great too. Good Job.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2123,6241 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>59</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>88</v>
+      </c>
+      <c r="O9" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>88</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" t="s">
+        <v>95</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>116</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>116</v>
+      </c>
+      <c r="O16" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K17" t="s">
+        <v>130</v>
+      </c>
+      <c r="L17" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>132</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s">
+        <v>135</v>
+      </c>
+      <c r="L18" t="s">
+        <v>136</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>137</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
+        <v>141</v>
+      </c>
+      <c r="L19" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>143</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" t="s">
+        <v>152</v>
+      </c>
+      <c r="L21" t="s">
+        <v>153</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" t="s">
+        <v>95</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>155</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>156</v>
+      </c>
+      <c r="J22" t="s">
+        <v>157</v>
+      </c>
+      <c r="K22" t="s">
+        <v>158</v>
+      </c>
+      <c r="L22" t="s">
+        <v>159</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>143</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" t="s">
+        <v>164</v>
+      </c>
+      <c r="L23" t="s">
+        <v>165</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>166</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J24" t="s">
+        <v>169</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>170</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>166</v>
+      </c>
+      <c r="O24" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" t="s">
+        <v>169</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s"/>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>166</v>
+      </c>
+      <c r="O25" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>176</v>
+      </c>
+      <c r="J26" t="s">
+        <v>177</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>178</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>180</v>
+      </c>
+      <c r="J27" t="s">
+        <v>177</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>166</v>
+      </c>
+      <c r="O27" t="s">
+        <v>95</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>182</v>
+      </c>
+      <c r="J28" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" t="s">
+        <v>184</v>
+      </c>
+      <c r="L28" t="s">
+        <v>185</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>166</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" t="s">
+        <v>188</v>
+      </c>
+      <c r="K29" t="s">
+        <v>189</v>
+      </c>
+      <c r="L29" t="s">
+        <v>190</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>178</v>
+      </c>
+      <c r="O29" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>192</v>
+      </c>
+      <c r="J30" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" t="s">
+        <v>194</v>
+      </c>
+      <c r="L30" t="s">
+        <v>195</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>178</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>197</v>
+      </c>
+      <c r="J31" t="s">
+        <v>198</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>178</v>
+      </c>
+      <c r="O31" t="s">
+        <v>171</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>199</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>200</v>
+      </c>
+      <c r="J32" t="s">
+        <v>201</v>
+      </c>
+      <c r="K32" t="s">
+        <v>202</v>
+      </c>
+      <c r="L32" t="s">
+        <v>203</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>178</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>205</v>
+      </c>
+      <c r="J33" t="s">
+        <v>206</v>
+      </c>
+      <c r="K33" t="s">
+        <v>207</v>
+      </c>
+      <c r="L33" t="s">
+        <v>208</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>209</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>210</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>211</v>
+      </c>
+      <c r="J34" t="s">
+        <v>212</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>209</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>213</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>214</v>
+      </c>
+      <c r="J35" t="s">
+        <v>215</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s">
+        <v>170</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>209</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>217</v>
+      </c>
+      <c r="J36" t="s">
+        <v>218</v>
+      </c>
+      <c r="K36" t="s">
+        <v>219</v>
+      </c>
+      <c r="L36" t="s">
+        <v>220</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>221</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>224</v>
+      </c>
+      <c r="J37" t="s">
+        <v>225</v>
+      </c>
+      <c r="K37" t="s">
+        <v>226</v>
+      </c>
+      <c r="L37" t="s">
+        <v>227</v>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="s">
+        <v>209</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>228</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>229</v>
+      </c>
+      <c r="J38" t="s">
+        <v>230</v>
+      </c>
+      <c r="K38" t="s">
+        <v>231</v>
+      </c>
+      <c r="L38" t="s">
+        <v>232</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>233</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>234</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>235</v>
+      </c>
+      <c r="J39" t="s">
+        <v>236</v>
+      </c>
+      <c r="K39" t="s">
+        <v>237</v>
+      </c>
+      <c r="L39" t="s">
+        <v>238</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>233</v>
+      </c>
+      <c r="O39" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>239</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>240</v>
+      </c>
+      <c r="J40" t="s">
+        <v>241</v>
+      </c>
+      <c r="K40" t="s">
+        <v>242</v>
+      </c>
+      <c r="L40" t="s">
+        <v>243</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>233</v>
+      </c>
+      <c r="O40" t="s">
+        <v>171</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>245</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>246</v>
+      </c>
+      <c r="J41" t="s">
+        <v>247</v>
+      </c>
+      <c r="K41" t="s">
+        <v>248</v>
+      </c>
+      <c r="L41" t="s">
+        <v>249</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>221</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>251</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>252</v>
+      </c>
+      <c r="J42" t="s">
+        <v>253</v>
+      </c>
+      <c r="K42" t="s">
+        <v>254</v>
+      </c>
+      <c r="L42" t="s">
+        <v>255</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>137</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>257</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>258</v>
+      </c>
+      <c r="J43" t="s">
+        <v>259</v>
+      </c>
+      <c r="K43" t="s">
+        <v>260</v>
+      </c>
+      <c r="L43" t="s">
+        <v>261</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>221</v>
+      </c>
+      <c r="O43" t="s">
+        <v>171</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>263</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>264</v>
+      </c>
+      <c r="J44" t="s">
+        <v>265</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s"/>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>266</v>
+      </c>
+      <c r="O44" t="s">
+        <v>59</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>267</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>268</v>
+      </c>
+      <c r="J45" t="s">
+        <v>269</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s">
+        <v>170</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>266</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>270</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>271</v>
+      </c>
+      <c r="J46" t="s">
+        <v>272</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s">
+        <v>170</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>273</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>2</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>274</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>275</v>
+      </c>
+      <c r="J47" t="s">
+        <v>276</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s"/>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>273</v>
+      </c>
+      <c r="O47" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>277</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>278</v>
+      </c>
+      <c r="J48" t="s">
+        <v>279</v>
+      </c>
+      <c r="K48" t="s">
+        <v>280</v>
+      </c>
+      <c r="L48" t="s">
+        <v>281</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>273</v>
+      </c>
+      <c r="O48" t="s">
+        <v>171</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>283</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>284</v>
+      </c>
+      <c r="J49" t="s">
+        <v>285</v>
+      </c>
+      <c r="K49" t="s">
+        <v>286</v>
+      </c>
+      <c r="L49" t="s">
+        <v>287</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>273</v>
+      </c>
+      <c r="O49" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>289</v>
+      </c>
+      <c r="J50" t="s">
+        <v>290</v>
+      </c>
+      <c r="K50" t="s">
+        <v>291</v>
+      </c>
+      <c r="L50" t="s">
+        <v>292</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>293</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>294</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>295</v>
+      </c>
+      <c r="J51" t="s">
+        <v>296</v>
+      </c>
+      <c r="K51" t="s">
+        <v>297</v>
+      </c>
+      <c r="L51" t="s">
+        <v>298</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>137</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>299</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>300</v>
+      </c>
+      <c r="J52" t="s">
+        <v>301</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>137</v>
+      </c>
+      <c r="O52" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>302</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>303</v>
+      </c>
+      <c r="J53" t="s">
+        <v>304</v>
+      </c>
+      <c r="K53" t="s">
+        <v>305</v>
+      </c>
+      <c r="L53" t="s">
+        <v>306</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>307</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>308</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>309</v>
+      </c>
+      <c r="J54" t="s">
+        <v>310</v>
+      </c>
+      <c r="K54" t="s">
+        <v>311</v>
+      </c>
+      <c r="L54" t="s">
+        <v>312</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>307</v>
+      </c>
+      <c r="O54" t="s">
+        <v>95</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>313</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>314</v>
+      </c>
+      <c r="J55" t="s">
+        <v>315</v>
+      </c>
+      <c r="K55" t="s">
+        <v>316</v>
+      </c>
+      <c r="L55" t="s">
+        <v>317</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="s">
+        <v>307</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>2</v>
+      </c>
+      <c r="S55" t="n">
+        <v>1</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>319</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>320</v>
+      </c>
+      <c r="J56" t="s">
+        <v>321</v>
+      </c>
+      <c r="K56" t="s">
+        <v>322</v>
+      </c>
+      <c r="L56" t="s">
+        <v>323</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>307</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>324</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>325</v>
+      </c>
+      <c r="J57" t="s">
+        <v>326</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>327</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>328</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>329</v>
+      </c>
+      <c r="J58" t="s">
+        <v>330</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s"/>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>327</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>331</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>332</v>
+      </c>
+      <c r="J59" t="s">
+        <v>333</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>334</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>335</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>336</v>
+      </c>
+      <c r="J60" t="s">
+        <v>337</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>334</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>338</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>339</v>
+      </c>
+      <c r="J61" t="s">
+        <v>340</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>341</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>342</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>343</v>
+      </c>
+      <c r="J62" t="s">
+        <v>344</v>
+      </c>
+      <c r="K62" t="s">
+        <v>345</v>
+      </c>
+      <c r="L62" t="s">
+        <v>346</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>347</v>
+      </c>
+      <c r="O62" t="s">
+        <v>171</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>349</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>350</v>
+      </c>
+      <c r="J63" t="s">
+        <v>344</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s">
+        <v>170</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>347</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>351</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>352</v>
+      </c>
+      <c r="J64" t="s">
+        <v>353</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s"/>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>347</v>
+      </c>
+      <c r="O64" t="s">
+        <v>171</v>
+      </c>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>354</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>355</v>
+      </c>
+      <c r="J65" t="s">
+        <v>356</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s"/>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>357</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>358</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>359</v>
+      </c>
+      <c r="J66" t="s">
+        <v>360</v>
+      </c>
+      <c r="K66" t="s">
+        <v>361</v>
+      </c>
+      <c r="L66" t="s">
+        <v>362</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>357</v>
+      </c>
+      <c r="O66" t="s">
+        <v>171</v>
+      </c>
+      <c r="P66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>363</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>364</v>
+      </c>
+      <c r="J67" t="s">
+        <v>365</v>
+      </c>
+      <c r="K67" t="s">
+        <v>366</v>
+      </c>
+      <c r="L67" t="s">
+        <v>367</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>368</v>
+      </c>
+      <c r="O67" t="s">
+        <v>171</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>370</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>371</v>
+      </c>
+      <c r="J68" t="s">
+        <v>372</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>373</v>
+      </c>
+      <c r="O68" t="s">
+        <v>66</v>
+      </c>
+      <c r="P68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>374</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>375</v>
+      </c>
+      <c r="J69" t="s">
+        <v>376</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>377</v>
+      </c>
+      <c r="O69" t="s">
+        <v>171</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>378</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>379</v>
+      </c>
+      <c r="J70" t="s">
+        <v>380</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s"/>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>381</v>
+      </c>
+      <c r="O70" t="s">
+        <v>95</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>382</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>383</v>
+      </c>
+      <c r="J71" t="s">
+        <v>384</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s">
+        <v>170</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>385</v>
+      </c>
+      <c r="O71" t="s">
+        <v>171</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>386</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>387</v>
+      </c>
+      <c r="J72" t="s">
+        <v>388</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>385</v>
+      </c>
+      <c r="O72" t="s">
+        <v>171</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>389</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>390</v>
+      </c>
+      <c r="J73" t="s">
+        <v>391</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>385</v>
+      </c>
+      <c r="O73" t="s">
+        <v>171</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>2</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>392</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>393</v>
+      </c>
+      <c r="J74" t="s">
+        <v>394</v>
+      </c>
+      <c r="K74" t="s">
+        <v>395</v>
+      </c>
+      <c r="L74" t="s">
+        <v>396</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>397</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>398</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>399</v>
+      </c>
+      <c r="J75" t="s">
+        <v>400</v>
+      </c>
+      <c r="K75" t="s">
+        <v>401</v>
+      </c>
+      <c r="L75" t="s">
+        <v>402</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>397</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>403</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>404</v>
+      </c>
+      <c r="J76" t="s">
+        <v>405</v>
+      </c>
+      <c r="K76" t="s">
+        <v>406</v>
+      </c>
+      <c r="L76" t="s">
+        <v>407</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="s">
+        <v>397</v>
+      </c>
+      <c r="O76" t="s">
+        <v>171</v>
+      </c>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>408</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>409</v>
+      </c>
+      <c r="J77" t="s">
+        <v>410</v>
+      </c>
+      <c r="K77" t="s">
+        <v>411</v>
+      </c>
+      <c r="L77" t="s">
+        <v>412</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>413</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>1</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>415</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>416</v>
+      </c>
+      <c r="J78" t="s">
+        <v>417</v>
+      </c>
+      <c r="K78" t="s">
+        <v>418</v>
+      </c>
+      <c r="L78" t="s">
+        <v>419</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>420</v>
+      </c>
+      <c r="O78" t="s">
+        <v>66</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>421</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>422</v>
+      </c>
+      <c r="J79" t="s">
+        <v>423</v>
+      </c>
+      <c r="K79" t="s">
+        <v>424</v>
+      </c>
+      <c r="L79" t="s">
+        <v>425</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>426</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>2</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>428</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>429</v>
+      </c>
+      <c r="J80" t="s">
+        <v>430</v>
+      </c>
+      <c r="K80" t="s">
+        <v>431</v>
+      </c>
+      <c r="L80" t="s">
+        <v>432</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>433</v>
+      </c>
+      <c r="O80" t="s">
+        <v>59</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>434</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>435</v>
+      </c>
+      <c r="J81" t="s">
+        <v>430</v>
+      </c>
+      <c r="K81" t="s">
+        <v>436</v>
+      </c>
+      <c r="L81" t="s">
+        <v>437</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>426</v>
+      </c>
+      <c r="O81" t="s">
+        <v>171</v>
+      </c>
+      <c r="P81" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>438</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>439</v>
+      </c>
+      <c r="J82" t="s">
+        <v>440</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>433</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>441</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>442</v>
+      </c>
+      <c r="J83" t="s">
+        <v>443</v>
+      </c>
+      <c r="K83" t="s"/>
+      <c r="L83" t="s"/>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>444</v>
+      </c>
+      <c r="O83" t="s">
+        <v>59</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>2</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>445</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>446</v>
+      </c>
+      <c r="J84" t="s">
+        <v>447</v>
+      </c>
+      <c r="K84" t="s">
+        <v>448</v>
+      </c>
+      <c r="L84" t="s">
+        <v>449</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>444</v>
+      </c>
+      <c r="O84" t="s">
+        <v>66</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>450</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>451</v>
+      </c>
+      <c r="J85" t="s">
+        <v>452</v>
+      </c>
+      <c r="K85" t="s">
+        <v>453</v>
+      </c>
+      <c r="L85" t="s">
+        <v>454</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>444</v>
+      </c>
+      <c r="O85" t="s">
+        <v>171</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>456</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>457</v>
+      </c>
+      <c r="J86" t="s">
+        <v>458</v>
+      </c>
+      <c r="K86" t="s">
+        <v>459</v>
+      </c>
+      <c r="L86" t="s">
+        <v>460</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>461</v>
+      </c>
+      <c r="O86" t="s">
+        <v>66</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>2</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>2</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>463</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>464</v>
+      </c>
+      <c r="J87" t="s">
+        <v>458</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>444</v>
+      </c>
+      <c r="O87" t="s">
+        <v>171</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>465</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>466</v>
+      </c>
+      <c r="J88" t="s">
+        <v>458</v>
+      </c>
+      <c r="K88" t="s">
+        <v>467</v>
+      </c>
+      <c r="L88" t="s">
+        <v>468</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>444</v>
+      </c>
+      <c r="O88" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>469</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>470</v>
+      </c>
+      <c r="J89" t="s">
+        <v>471</v>
+      </c>
+      <c r="K89" t="s"/>
+      <c r="L89" t="s"/>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>461</v>
+      </c>
+      <c r="O89" t="s">
+        <v>171</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>472</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>473</v>
+      </c>
+      <c r="J90" t="s">
+        <v>474</v>
+      </c>
+      <c r="K90" t="s">
+        <v>475</v>
+      </c>
+      <c r="L90" t="s">
+        <v>476</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>477</v>
+      </c>
+      <c r="O90" t="s">
+        <v>66</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>479</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>480</v>
+      </c>
+      <c r="J91" t="s">
+        <v>481</v>
+      </c>
+      <c r="K91" t="s">
+        <v>482</v>
+      </c>
+      <c r="L91" t="s">
+        <v>483</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>484</v>
+      </c>
+      <c r="O91" t="s">
+        <v>95</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>3</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>486</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>487</v>
+      </c>
+      <c r="J92" t="s">
+        <v>488</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s"/>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>489</v>
+      </c>
+      <c r="O92" t="s">
+        <v>171</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>490</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>491</v>
+      </c>
+      <c r="J93" t="s">
+        <v>492</v>
+      </c>
+      <c r="K93" t="s">
+        <v>493</v>
+      </c>
+      <c r="L93" t="s">
+        <v>494</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>495</v>
+      </c>
+      <c r="O93" t="s">
+        <v>59</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>496</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>497</v>
+      </c>
+      <c r="J94" t="s">
+        <v>498</v>
+      </c>
+      <c r="K94" t="s">
+        <v>499</v>
+      </c>
+      <c r="L94" t="s">
+        <v>500</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>2</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>3</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>501</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>502</v>
+      </c>
+      <c r="J95" t="s">
+        <v>503</v>
+      </c>
+      <c r="K95" t="s">
+        <v>504</v>
+      </c>
+      <c r="L95" t="s">
+        <v>505</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>506</v>
+      </c>
+      <c r="O95" t="s">
+        <v>66</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>507</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>508</v>
+      </c>
+      <c r="J96" t="s">
+        <v>503</v>
+      </c>
+      <c r="K96" t="s">
+        <v>509</v>
+      </c>
+      <c r="L96" t="s">
+        <v>510</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>506</v>
+      </c>
+      <c r="O96" t="s">
+        <v>59</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>511</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>512</v>
+      </c>
+      <c r="J97" t="s">
+        <v>513</v>
+      </c>
+      <c r="K97" t="s">
+        <v>514</v>
+      </c>
+      <c r="L97" t="s">
+        <v>515</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s"/>
+      <c r="O97" t="s"/>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>516</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>517</v>
+      </c>
+      <c r="J98" t="s">
+        <v>518</v>
+      </c>
+      <c r="K98" t="s">
+        <v>519</v>
+      </c>
+      <c r="L98" t="s">
+        <v>520</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>521</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>522</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>523</v>
+      </c>
+      <c r="J99" t="s">
+        <v>524</v>
+      </c>
+      <c r="K99" t="s">
+        <v>525</v>
+      </c>
+      <c r="L99" t="s">
+        <v>526</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="s">
+        <v>527</v>
+      </c>
+      <c r="O99" t="s">
+        <v>59</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>1</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>35466</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>528</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>529</v>
+      </c>
+      <c r="J100" t="s">
+        <v>530</v>
+      </c>
+      <c r="K100" t="s">
+        <v>531</v>
+      </c>
+      <c r="L100" t="s">
+        <v>532</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>532</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_642.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_642.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="632">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>stacleigh38</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Bobbie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r380082871-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>tattoomaggot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r364557885-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>J V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r355864104-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>Rented 2 rooms. The first room was ok it just had a tv from around 1953 in it (sarcasm). The second room was DISGUSTING!!! The floor wasn't vacuumed, it smelled like somebody died in it, there were yellow stains on one bed and blood stains on the other bed. I asked for a refund and was told no because it had been more than an hour but when we checked into the room we didn't even go inside because we just flew from Florida and went straight to dinner but wanted to check-in first so we didn't lose our reservations. Which was a complete lie because I manage a Wyndham property in Florida myself so I already know how things work. The next morning he offers me a different room and gives me keys to 2 different rooms to look at and BOTH rooms were worse than the first one. I didn't see one house keeper the entire time I was there, and the pest control company was there in the morning spraying multiple rooms for bed bugs. HORRIBLE customer service, DISGUSTING property, REGRETFUL experience. DO NOT STAY HERE!!!More</t>
   </si>
   <si>
+    <t>Carlos A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r354547633-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>March 2016</t>
   </si>
   <si>
+    <t>216jefferys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r353339796-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -267,6 +285,9 @@
     <t>03/06/2016</t>
   </si>
   <si>
+    <t>Carol M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r341716517-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -288,6 +309,9 @@
     <t>We have used the microtel 901 Airport Freeway, Euless TX for several years now.  Just returned from Texas earlier this week after booking there once again.  On our last visit a year ago the room had mold in the bathroom and didn't smell all that good.  This time 2016 we had a room with a small cockroach in the bathroom, mold around the tub were the surround meets the tub, rip in the carpet, wardrobe was warped at the bottom and probably had mold, curtain was hanging by only about four hooks, bed sheets had so many pills it felt like sand paper, bed was made haphazardly, and the continental breakfast was cold cereal, a few rolls and muffins, milk, the usual waffle machine, juice, one type of coffee, and water that might or might not be hot for your tea.  The trash was picked up in and around the building but the place needs some maintenance.  We have decided it's time to move on although we like the location and low cost of staying there.  If you stay bring your own box of tissues as we had a travel size in the bathroom that ran out.More</t>
   </si>
   <si>
+    <t>R6323MREulessTexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r339008319-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -309,12 +333,18 @@
     <t>This property appears to decline on each visit.   The front desk personnel are rude and not helpful.   The non smoking room smelled of smoke, there was a new flat screen tv that was unplugged. Plugged the tv in and discovered that the remote would control the channels but not the volume (it was loud).  Went to desk and ask for new batteries for remote was told that the remote was working fine and tv was working fine.    Ok, at this point I guest I really don't need the television.  There were no bath &amp; face towels. Again, had to return to the desk.  Was given items asked for but the fact that these items were not in the room did not seem to be an issue for hotel staff.  If you want a cheap place to stay and don't mind these inconveniences this is the place to stay.  More</t>
   </si>
   <si>
+    <t>nothappyfamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r339001732-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
     <t>339001732</t>
   </si>
   <si>
+    <t>W5552GAjuanm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r337568991-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -324,6 +354,9 @@
     <t>01/05/2016</t>
   </si>
   <si>
+    <t>rickys349</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r334694732-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -342,6 +375,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>troyc949</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r332768142-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -351,6 +387,9 @@
     <t>12/14/2015</t>
   </si>
   <si>
+    <t>davEE5856XN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r326078558-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -372,6 +411,9 @@
     <t>Early check in allowed and was allowed to change from smoking to non-smoking room then it went downhill.Stayed only a few minutes but enough time to purchase air freshener to help with the bad mildew smell in the room, no towels at all were in the room and cleanliness was missing. The guy who checked us in was in the hall so I asked him to bring some towels because we were leaving to the game but that never happened. Wife and daughter returned early only to here banging on their room door from some stranger and it took two calls to the front desk to get rid of the stranger. I arrived later only to realize there were still no towels, called in the morning and they  said come down and get them. I go get them and they only give me 1 large towel and 4 little ones and say come back later for more. I could not have lasted another night there. I will definitely pass the word to friends, family, co-workers and enemies to avoid Microtel and Wyndham.More</t>
   </si>
   <si>
+    <t>743jacquelyne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r326065678-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -384,6 +426,9 @@
     <t>I was in town for the Dallas Cowboys game and wanted some place inexpensive to stay.  The hotel was close to the stadium, malls, restaurants, etc.; therefore, it was very convenient.  It was clean and the staff was friendly.  I got what I paid for and don't have any complaints.</t>
   </si>
   <si>
+    <t>Melinda F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r325238063-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -399,6 +444,9 @@
     <t>CJ at front desk dealt with reservation snafu politely and gave me discount even tho reservation was was not received from service. Room,bathroom clean;bed,sheets towels clean,breakfast fine etc. it isn't the Ritz,but a serviceable motel for overnight stay.</t>
   </si>
   <si>
+    <t>juliol670</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r324503422-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -414,6 +462,9 @@
     <t xml:space="preserve">The stay was ok. Because we were so tired and the price was good. But the front desk was rude. Seemed a bit blunt. And not nice. But other than that everything was good </t>
   </si>
   <si>
+    <t>Kellyme487</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r323327733-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -432,6 +483,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>784perih</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r322896662-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -450,6 +504,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>edwardd438</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r320794405-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -465,6 +522,9 @@
     <t xml:space="preserve">the room smelled of cigarettes, the ice and juice machines did not work, breakfast was not a pleasant experienceand the day desk man was wearing his pajamas everyday. I have used this hotel two timmes a yr for the past 5 yrs and everytime, the quality of service keeps going down      </t>
   </si>
   <si>
+    <t>Katwlk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r318418682-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -483,6 +543,9 @@
     <t>I travel quite a lot. This is the worst hotel ever. Shame on Wyndham for putting their name on such an incredibly filthy, trashy hotel. The clerks were not even wearing shoes, had on pajama bottoms and looked liked they just woke up. If you have the choice of staying in this hotel and sleeping on a bench or in your car, choose the bench or car... Didn't even have towels in the room. We asked for them, they delivered them more than an hour later and they were still damp. This was at 6 p.m.  Only hot faucet worked in the sink, dirt on the curtains. I could go on and on...More</t>
   </si>
   <si>
+    <t>Mary Joan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r316690823-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -501,6 +564,9 @@
     <t>We arrived at the hotel at around 8:30 am and the front desk lady was there to accomodate us. She just gave me the keys and directed us in our room. I went to the room and checked it when I entered it smells musty and the carpet was so sticky. We were so exhausted that time thats why I didn't complain and want to just rest. My husband was hungry that time and I told him there is a free breakfast just in front of the lobby at the front desk so he went. He was getting a juice that time and suddenly the frontdesk lady starts to slam the doors of where the food is and verbally told my husband that the breakfast time is over. She did not even told me that the breakfast time is only until 9am when we arrive. The breakfast area was still open when my husband arrived there and she just start slamming the cabinet doors when he start to take the FREE breakfast that was included in our stay. She also ask me the pay extra$25 for early check in and I have no choice but to pay extra because we were so exhausted. The other hotel that I have been never ask for extra payment if we checked in early but anyway they have different policies I think. I will never recommend this hotel. I feel uncomfortable with our stay...We arrived at the hotel at around 8:30 am and the front desk lady was there to accomodate us. She just gave me the keys and directed us in our room. I went to the room and checked it when I entered it smells musty and the carpet was so sticky. We were so exhausted that time thats why I didn't complain and want to just rest. My husband was hungry that time and I told him there is a free breakfast just in front of the lobby at the front desk so he went. He was getting a juice that time and suddenly the frontdesk lady starts to slam the doors of where the food is and verbally told my husband that the breakfast time is over. She did not even told me that the breakfast time is only until 9am when we arrive. The breakfast area was still open when my husband arrived there and she just start slamming the cabinet doors when he start to take the FREE breakfast that was included in our stay. She also ask me the pay extra$25 for early check in and I have no choice but to pay extra because we were so exhausted. The other hotel that I have been never ask for extra payment if we checked in early but anyway they have different policies I think. I will never recommend this hotel. I feel uncomfortable with our stay here. Cleaning staff is always late. She did not even gave us the password for the free internet that was included in our stay.More</t>
   </si>
   <si>
+    <t>715cherylk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r315103647-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -519,6 +585,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Alexa H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r314933431-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -537,12 +606,18 @@
     <t>More</t>
   </si>
   <si>
+    <t>jgs208</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r314922935-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
     <t>314922935</t>
   </si>
   <si>
+    <t>emilya323</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r309089349-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -555,12 +630,18 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>H2301XVchrism</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r308875919-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
     <t>308875919</t>
   </si>
   <si>
+    <t>caacm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r308097791-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -576,6 +657,9 @@
     <t>Stayed here for one night but scheduled for 2 night getaway.  Had to change hotels because it was so bad.  First the hotel is so dirty (lobby, halls, and room).  The room was supposed to be non-smoking but reeked of smoke and there was evidence of smoking by burn marks on the pads and pillow in the window.  The sheets were stained and the bedspread was somewhere in the 70's era.  The blanket on the bed was worn.  The water was either hot, hotter, or scorching.  There was no warm.  The free internet was almost non-existent.  Definitely will not stay at a Wyndham hotel again.  Run from this hotel!</t>
   </si>
   <si>
+    <t>Linda A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r301310739-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -591,6 +675,9 @@
     <t>When i was checking than time front-desk guy is very good  accent and his a really co-operate with taking care for customer . and lastly i said place is good, the employees is good more ever manager is very good ... i will come definitely again here</t>
   </si>
   <si>
+    <t>normant301</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r298647482-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -606,6 +693,9 @@
     <t>This hotel met my expectations for location but other than that nothing else. Housekeeping was a joke, the counter clerks seemed to have no clue and the biggest kicker was the fact the floor in front of the A/C unit was soaking wet. When told of the problem there was no offer of a different room and no one ever did check the situation out.</t>
   </si>
   <si>
+    <t>theresab679</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r298043402-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -615,6 +705,9 @@
     <t>08/11/2015</t>
   </si>
   <si>
+    <t>Kate B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r296478793-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -630,6 +723,9 @@
     <t xml:space="preserve">These rooms are not even a budget room. They are disgusting. From the moment I opened the door to my room the smell was horrible, there was sticky stuff on my floor. I wore my thongs everywhere including the shower right to bed. They hotel staff were so unhelpful and spoke pour English.The hotel is located near nothing. It's a $50 cab ride to just about anywhere and the staff had no interesting in helping find transport. Dallas/Fort Worth is very spread out has no public transportation,But has a lot to offer as far as tourism and shopping.  Plan your trip wisely. And do not stay here. </t>
   </si>
   <si>
+    <t>Shannon M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r296112339-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -648,6 +744,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>stevensO9580VD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r293120238-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -657,6 +756,9 @@
     <t>07/27/2015</t>
   </si>
   <si>
+    <t>640tonyas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r289363138-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -666,6 +768,9 @@
     <t>07/15/2015</t>
   </si>
   <si>
+    <t>1al2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r288886243-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -687,6 +792,9 @@
     <t>The shower curtain had what looked like mold. Tub was pilling. Tub plug missing(found at under tolet while picking up and checking before leaving) holes were in bed spreads.  Corners and around edges were very durty. Window wasn't cleaned. Key was turned off before both days even begore check out. No fruit, Walffles dough tasted old and rubbery, syrup bottle was very sticky. I came down second day to see lady pouring syrup into the bottle that still had syrup in it. She put it out to use. I was the first to use it and it was thick with sticky syrup all over side and front of bottle. Not even washed off. Breakfast room was locked up therefore no place to set down with kids. Over all not a pleasant stay.More</t>
   </si>
   <si>
+    <t>Mary Helen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r288170761-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -702,6 +810,9 @@
     <t>I brought my kids and a foreign exchange student to see some sights in Dallas. We picked Microtel for the price and the morning breakfast. Rooms were ok, as expected. The breakfast was pathetic. No staff watching food. Ran out of food both days and ran out of coffee, juice, and milk. No bowls for cereal. Come on! Manger/owners should care a little!!!</t>
   </si>
   <si>
+    <t>Diana L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r284452397-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -720,6 +831,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>C I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r283471495-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -735,6 +849,9 @@
     <t>Now I do stay at Motel 6 sometimes, when necessary.  My room was worn and dirty.  They claim to. E a non smoking hotel, but the hallway and room were thick with tobacco odor.  There were holes in my bedsheets, they were worn and pilled, rough to sleep on.  The staff was nice, tried hard and had good attitudes.  I was stranded at DFW, and was glad for any refuge at that point.</t>
   </si>
   <si>
+    <t>ListoMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r283218900-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -751,6 +868,9 @@
   </si>
   <si>
     <t>Due to American Airlines incompetence, I missed my flight. AA uses this hotel to book flyers that miss connections due to airline problems.It is a fairly standard, no frills, basic motel. That being said, it was clean, quiet with no room noise, and the beds were comfortable.The night manager gets a special shout out for being so friendly and efficient. She had me all set in less than 1 minute. There was a breakfast bar with waffles, juice, coffee, pastries, etc. included. Wifi was free and speed was average. A brief note for other American Airlines customers who end up here. American will give you a taxi voucher card to get to and from here. I don't know what the taxi drivers get from American, as it must not be very much. Both of the drivers started grumbling when I gave them the voucher, even when they both knew about it in advance.More</t>
+  </si>
+  <si>
+    <t>Secularity</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r275121729-Regency_Inn_Suites-Euless_Texas.html</t>
@@ -779,6 +899,9 @@
 If you have an early flight out and get stuck in this hotel, you'll have to take a cab because their shuttle doesn't start running...We wound up at Microtel because we missed a connecting flight due to mechanical problems so American Airlines put us (and many other travelers) up there. Unlucky us.The concierge in the Admiral's Club called Microtel around 9:35 pm to make sure their shuttle driver knew to pick us up. We headed out to the pickup spot and saw the shuttle go by as we were descending some stairs at about 9:50. Figuring it would be back, we made our way to the pick-up spot and waited. For an hour. We called the hotel and were told they stopped running shuttles at 10 pm. So, one $30 cab ride later, we arrived at the hotel.The front desk person was friendly.We headed up to our room and noticed that the hallways were grimy, the elevator was filthy and the air smelled like stale cigarette smoke. The room had an old TV, the walls were damaged, carpeting worn and had an unpleasant odor. Too tired to complain, we slept. When we woke up, I headed down around 8:30 am to the continental breakfast to grab some fruit and tea but there wasn't any. The offerings were so pathetic that we decided to eat at the Denny's where we were regaled by stranded passenger horror stories. If you have an early flight out and get stuck in this hotel, you'll have to take a cab because their shuttle doesn't start running until 10am. After the terrifying shuttle trip back to the airport, I was almost glad we didn't have to experience it in the dark.Given the choice of staying here again or sleeping at the airport it would be a difficult decision.More</t>
   </si>
   <si>
+    <t>Marinerpeeps</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r273200438-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -797,6 +920,9 @@
     <t>Wei missed a flight at DFW due to poor weather, and were given vouchers by airline to sleep overnight.  Waited with 12 other passengers for courtesy van. Van never came. Had to get cabs to hotel.  Got to hotel, checked into room with relative ease.  Went to room with wife, and noticed immediately a stain on the bedspread.  And another on the sheets.  I know that accomodations for layovers are as needed, but this was awful.  Asked for another room, which was just as bad, not clean and uncomfortable.  Dirty.  No other rooms available.  Was afraid to touch anything.  The good news was that we checked in around midnight, and our flight was at 6:50.  Only there for a few hours.More</t>
   </si>
   <si>
+    <t>Texanne_Lubbock</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r272340436-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -815,6 +941,9 @@
     <t>We were sent here for the night by american airlines after they delayed our flight for security reasons and we missed connections.   The good thing is they have very comfortable beds and really comfortable room layout and lighting.  But the showerhead was stuck pointed at the wall, the fixtures were rickety, and there were cob webs. At breakfast there was no fruit or yoghurt, and the whole place was very messy.   This is a low rent place so the beds were a welcome surpirse.  Forget about ground transportation from the airport.  We waited 30 minutes for the shuttle and then called back and were told the shuttle driver came, picked up other people and went back to the hotel.  We asked if we would be picked up next and the woman said it depended on how many people were picked up before us.  She suggested we get a cab, which we did.  In the morning their shuttle runs only between 6-7, so after the woman told us to leave at 9:30am to get our flight we called a cab company for the next morning.  While waiting for our cab, a huge van pulled up which was the shared cab the hotel had arranged for a collected group of guests.  When I asked the same woman from the previous night, why we weren't offered this option, she looked dumbfounded and said she didn't know when we wanted to leave.  Apparently they...We were sent here for the night by american airlines after they delayed our flight for security reasons and we missed connections.   The good thing is they have very comfortable beds and really comfortable room layout and lighting.  But the showerhead was stuck pointed at the wall, the fixtures were rickety, and there were cob webs. At breakfast there was no fruit or yoghurt, and the whole place was very messy.   This is a low rent place so the beds were a welcome surpirse.  Forget about ground transportation from the airport.  We waited 30 minutes for the shuttle and then called back and were told the shuttle driver came, picked up other people and went back to the hotel.  We asked if we would be picked up next and the woman said it depended on how many people were picked up before us.  She suggested we get a cab, which we did.  In the morning their shuttle runs only between 6-7, so after the woman told us to leave at 9:30am to get our flight we called a cab company for the next morning.  While waiting for our cab, a huge van pulled up which was the shared cab the hotel had arranged for a collected group of guests.  When I asked the same woman from the previous night, why we weren't offered this option, she looked dumbfounded and said she didn't know when we wanted to leave.  Apparently they do this for their guests, but not us.  I know she was busy and apparently the only person holding down the desk, but we ended up paying more for the cab trips than the cost of the room.  We should have just booked ourselves elsewhere.More</t>
   </si>
   <si>
+    <t>Michael T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r266077790-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -827,6 +956,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Karin T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r264967085-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -836,6 +968,9 @@
     <t>04/10/2015</t>
   </si>
   <si>
+    <t>christinasE3398RV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r263308775-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -848,6 +983,9 @@
     <t>March 2015</t>
   </si>
   <si>
+    <t>Sheri W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r258842621-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -857,6 +995,9 @@
     <t>03/10/2015</t>
   </si>
   <si>
+    <t>oblivious_drifter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r258550497-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -875,6 +1016,9 @@
     <t>1. Begrudgingly gave us a 9am shuttle to the airport after explaining that 7 was too early and 1030 too late.    2.  Soda machines out of everything but 7up and only took coins. 3. Unidentified bugs in room.  3. Lots of long black hair in bedding .  4. Room outdated (severely).  5. carpet sticky/greasy.   6. guests in breakfast area acting beligerant.  7. had to ask for shampoo at desk.  8 Hotel exterior fine, interior outdated and beaten up.  9. very few electrical outlets in room and inconveniently placed.   10.  Night desk attendant was nice and courteous.   11. shuttle dropped us off at wrong end of terminal resulting in a 15 minute extra walk.  12.  Have stayed at several microtel in the past and have had not issues. 13. breakfast was sooooo marginal.  Only sweetener for coffee was sugar and pink packets (sweet and low).   bread was stale.  milk seemed watered down.  selection was minimal.... coffee was yuckily weak.More</t>
   </si>
   <si>
+    <t>Melissa J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r258077902-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -890,6 +1034,9 @@
     <t>Thanks to flight delays by American Airlines (which in my experience happens frequently), I received a voucher to stay at the Microtel by the DFW Airport. The man at the front desk was friendly and empathetic to my travel-weary state. But the place was run-down and dirty. There were hairs in the bathroom, spots on the mirror, and the toilet rim wasn't clean. I wished I had stayed at the airport -- it would have been cleaner.</t>
   </si>
   <si>
+    <t>342gwenp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r243676651-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -908,6 +1055,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>930judyd</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r243576742-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -923,6 +1073,9 @@
     <t>If you want a high quality hotel stay at an exceptionally reasonable price. This hotel is ! Just completed my 4th stay and it is my go to hotel when in the DFW area. Clean, comfortable, nice buffet breakfast with Hot Texas shaped pancakes. fun! The management and staff could not be any more accomadating than they are! This Microhotel by Wyndham is sweet find!  Try it you will feel comfortable there and close to all the necessities of a large city. Save room for me!</t>
   </si>
   <si>
+    <t>310hazelm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r243246604-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -932,6 +1085,9 @@
     <t>12/06/2014</t>
   </si>
   <si>
+    <t>579susann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r237654410-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -950,6 +1106,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>mtravelguy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r236099615-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -965,6 +1124,9 @@
     <t xml:space="preserve">A dog was barking all night long and it was impossible to sleep....dog was on the same floor but at the other end...totally unacceptable  </t>
   </si>
   <si>
+    <t>JWK7385</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r235430918-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -983,6 +1145,9 @@
     <t>We stayed here on an American Airlines voucher after our flight delay caused us to miss all connecting flights home. The sign in front says the hotel is a Wyndham property--but it's a far cry from what you would expect from that chain. The rooms are dark and dingy, but the worst part is everything is permeated with a stale cigarette smell. There are no-smoking signs everywhere, so I assume that the no-smoking rule is relatively new. The building needs a deep cleaning--or replacement--of drapes, carpets, etc. to make this a real no-smoking property. On a positive note, the front desk clerk was extremely friendly and helpful (saving the hotel from a 1 circle review). If you're here without a car, you can make do since there's a Starbucks and Denny's within an easy walk. But I would never stay here voluntarily and, if offered a voucher for this place or someplace else, I'd give serious consideration to someplace else.More</t>
   </si>
   <si>
+    <t>Cristabel G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r233088314-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -998,6 +1163,9 @@
     <t>As soon as I got there I was so disgusted by the room. The bed sheets, the couch, and the ironing board had black and yellow stains on them. I had to go buy my own bed sheets because I felt so nasty sleeping on that bed. I got home 2 days after and come to find out I have bed bugs which obviously came from sleeping in this nasty place. I do not recommend AT ALL!!!!!!</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r230590865-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1010,6 +1178,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>David C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r230052225-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1019,6 +1190,9 @@
     <t>09/21/2014</t>
   </si>
   <si>
+    <t>Kevin L P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r225130185-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1031,6 +1205,9 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>Susan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r223368142-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1040,6 +1217,9 @@
     <t>08/21/2014</t>
   </si>
   <si>
+    <t>Doris R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r218016342-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1052,6 +1232,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>FDHOTEL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r210105023-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1073,12 +1256,18 @@
     <t>What a dump! Barely there A/C, sweating to death in my room...blood or make up stains on my pillow case, cigarette burns on bedspread, phone did not work, pee or some other fluids on toilet paper holder, cigarette burns in bathroom sink, the bed collapsed when I sat on the corner..odor everywhere...I wouldn't let my 2 pet mastiffs stay here! And why am I here at 1am on a Thursday night? because I am an American Airlines distressed passenger..,obviously not an important passenger in their eyes and if my flight wasn't in 6 hours, I would have left already...do not stay here! Shame on Wyndham for putting there name on this place!More</t>
   </si>
   <si>
+    <t>AleshaA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r210095818-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
     <t>210095818</t>
   </si>
   <si>
+    <t>Thomas T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r209888321-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1088,6 +1277,9 @@
     <t>06/11/2014</t>
   </si>
   <si>
+    <t>Michael N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r202324972-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1100,6 +1292,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>James M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r199961123-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1115,6 +1310,9 @@
     <t xml:space="preserve">This room had places in the carpet that were patched-in which looked very tacky. The couch had several holes in it. It looked like it had been slit with a knife several times. It too looked very tacky. When I took a shower in the a.m. the water was piping hot and adjusting the valve did nothing to change the temperature. So, I got to take a very hot shower that morning. Overall, I really wasn't impressed with this stay. </t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r198568973-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1136,6 +1334,9 @@
     <t>we found this facility to be quite nice except for the odor in the room when we first arrived. It smelled like it hadn't been used in quite a while. The room appeared very clean, the beds were wonderful, all was good except for the smell. We turned the air conditioner on before leaving for dinner and when we returned it was better.  This problem will have bearing on my over all report.  We were VERY pleased by the register and found her extremely helpful with or on line reservations. I had a problem with on line registration and when I called her she was very courteous and helpful.  More</t>
   </si>
   <si>
+    <t>Charles H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r195433382-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1148,6 +1349,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>James S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r190416153-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1160,6 +1364,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Albert G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r184101005-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1172,6 +1379,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>RomyFD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r181890365-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1184,6 +1394,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Marjorie P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r181709041-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1193,6 +1406,9 @@
     <t>10/20/2013</t>
   </si>
   <si>
+    <t>Michelle M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r179956680-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1202,6 +1418,9 @@
     <t>10/06/2013</t>
   </si>
   <si>
+    <t>Shaundell H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r174632306-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1220,6 +1439,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>bevgrove</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r171540582-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1235,6 +1457,9 @@
     <t>This is an o.k. place to stay.  We stay here often when visiting our kids. It is inexpensive compared to others around so for the money it is a good choice.  Beds are good, beddidng nice, carpet looks good lots of good lighting.  It certainly isn't a top notch place but we would rather save when we are in the room just to sleep.  Breakfast is normal continental breakfast but does include cereal, rolls, bagels and muffins fresh fruit and make yourself waffles.  Nothing hot.  If you are not expecting elegance, we recommend it.</t>
   </si>
   <si>
+    <t>Ruthlyn W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r171388038-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1250,6 +1475,9 @@
     <t>The Floor had Cookies on it. I didn't even want To Walk on the floor without my shoes, yet alone Some socks. The whole floor reeked of Smoke even though I asked for a Non Smoking Room. The Sheets had Cigarette burns in it and the bathroom was so nasty I didn't want To take a shower. This Hotel Was Horrible. I think I Would have been better off at the Quality Inn Next door. Would Not come back.</t>
   </si>
   <si>
+    <t>beckys320</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r166907436-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1271,6 +1499,9 @@
     <t>My husband, myself and my son stayed at this hotel. Our room was a King bed with a pull out. When we went to make up the pull-out for my son, the sheets were still on the mattress and were stuck to it. It looked like it hadn't been cleaned in months. We carefully pulled off all the sheets and under were yellow stains on the mattress. I went down to the front dest to ask for clean sheets and a disinfectant spray. The clueless girls gives me Fabreze, which doesn't kill any bateria. The "Non-smoking" room stunk of smoke and the mini fridge smelled like old bait. This was not a pleasant experience. We will not stay here again.More</t>
   </si>
   <si>
+    <t>Rochelle W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r163297818-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1289,6 +1520,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Talia R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r163006567-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1310,6 +1544,9 @@
     <t>I traveled from Ohio over 1000 miles only to receive terrible service.  The hotel smelled smoky upon arrival.  We checked into the room.  There were ants all over the bathroom floor and walls.  Burn marks and holes in the carpet.  We took  pictures with our cell phone.  We informed the receptionist and our room was upgraded to a Queen Suite.  We still had to request that the room be re cleaned.  The carpet was dirty needed to be vacuumed and the ironing board was broken unable to use.  We spoke to the Manager the next morning and he only credited our bill $20.00 for the entire 3 night stay.    At check out my debit card was swiped for $166.10. Two days later I noticed another charge from Microtel in the amount of $129.68.  I called and spoke to Brad the Manager.  He stated that he was the only one that does the transactions and that he did not charge my card twice.  My bank was the one that did it.  I called the bank they informed me that the additional charge was posted to my account and that Microtel should contact their merchant and resolve the issue.  I check out of the hotel on Sunday 6/2.  As of today 6/4 my card has not been reimbursed for the additional charges.  I am trying to be patient but this is ridiculous.  I will be traveling to the Euless area at least...I traveled from Ohio over 1000 miles only to receive terrible service.  The hotel smelled smoky upon arrival.  We checked into the room.  There were ants all over the bathroom floor and walls.  Burn marks and holes in the carpet.  We took  pictures with our cell phone.  We informed the receptionist and our room was upgraded to a Queen Suite.  We still had to request that the room be re cleaned.  The carpet was dirty needed to be vacuumed and the ironing board was broken unable to use.  We spoke to the Manager the next morning and he only credited our bill $20.00 for the entire 3 night stay.    At check out my debit card was swiped for $166.10. Two days later I noticed another charge from Microtel in the amount of $129.68.  I called and spoke to Brad the Manager.  He stated that he was the only one that does the transactions and that he did not charge my card twice.  My bank was the one that did it.  I called the bank they informed me that the additional charge was posted to my account and that Microtel should contact their merchant and resolve the issue.  I check out of the hotel on Sunday 6/2.  As of today 6/4 my card has not been reimbursed for the additional charges.  I am trying to be patient but this is ridiculous.  I will be traveling to the Euless area at least two more times this year but I will not be staying at this hotel.  I have stayed at Microtel before and have had a wonderful experience.  That is why I chose this hotel.More</t>
   </si>
   <si>
+    <t>i_r_rog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r161039356-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1328,6 +1565,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Jeff M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r161018707-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1340,6 +1580,9 @@
     <t>The suite was clean, although the layout of the room made half of it unusable space for a single occupant.  The bed was clean and comfortable, the A/C worked fine, and the [CRT] television worked fine - although there were HBO fliers in the room both channels marked as HBO were offline.  Free WI-FI was a click and forget process unlike other hotels that require a constant "click to connect" browser interface.  Staff was helpful.  Washer and drier were clean and worked fine.</t>
   </si>
   <si>
+    <t>Sheila C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r159605892-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1349,6 +1592,9 @@
     <t>05/04/2013</t>
   </si>
   <si>
+    <t>Shaquita T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r156181417-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1361,6 +1607,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Bertha R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r156003330-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1376,6 +1625,9 @@
     <t>My recent stay and Microtel Inn &amp; Suites at Euless/DFW was great.   Brad and Karen at the front desk provided excellent service from reservations thru check-out, they were wonderful.  I would stay there again and recommend it to my friends</t>
   </si>
   <si>
+    <t>Deana R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r155606606-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1394,6 +1646,9 @@
     <t>The staff was very helpful and sincerely interested in our good experience.  We invested our trip money in nice hotels in Belize, and really just wanted a place to sleep, shower, and go on our way to our dream vacation refreshed, and do the same on our way home a week later. The lobby and room was clean and comfortable. The wake up call and breakfast was perfect, with healthy options, and the shuttle driver called us promptly as we were a bit late, rather than leave us behind. The scheduled shuttle to and from the airport was really convenient, and our car was safe the week we were gone.  On our way back, a group they accommodated last minute because they got stuck in Dallas checked in with us, so the shuttle driver checked us in to keep us from waiting for them, a nice display of efficient human resources!  It wasn't the 5 star resort in Belize we were on our way to, but it suited our needs just fine, and left us more money for the dream trip!  We will surely look them up on our way to Costa Rica next trip!More</t>
   </si>
   <si>
+    <t>Shoshanda D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r154382187-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1415,12 +1670,18 @@
     <t>The room was okay for an overnight stay. I did not have any  of my luggage because it was on the fligjht before me. The shower was dirty. It had hair in it and most of the linen was stained. The lights in room had tons of dust hanging from them.  I did not like the fact that was hanging over he bed I was sleeping. The employee at the front desk called me that night ti make sure she had my wake-up call correct and I never recieved a call. This hotel is okay for a layover but I would not not stay here more than one night. The staff was very nice but the faciilities are gross.More</t>
   </si>
   <si>
+    <t>Elizabeth R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r154370729-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
     <t>154370729</t>
   </si>
   <si>
+    <t>Lisa Q</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r154328471-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1433,6 +1694,9 @@
     <t>Soon as I walked in the lobby the smell of smoke hit me. Older hotel, needs updatingBut was clean. Only problem was the smell of smoke throughout , even in my nonsmoking room. Smelled like a casino!</t>
   </si>
   <si>
+    <t>Evelyn Jeanette M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r151494150-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1442,6 +1706,9 @@
     <t>02/05/2013</t>
   </si>
   <si>
+    <t>jinw4672rx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r147339477-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1463,6 +1730,9 @@
     <t>The location is difficult to get around without a car but so is everywhere in Texas, the lack of mass transportation demands visitors procure a rental vehicle during their stay. The great part is that Enterprise "We'll Pick you up!" is pretty much right next door, convenient enough that you can drop off the car in the morning in the drop box and walk back to your motel. The hotel also provides airport transportation service which is a great bonus. I am not sure why someone complained about the transportation service because I found it very easy to use. Call Microtel ahead of time and ask for Brad to pick you up at whatever time you will be arriving and tell him when you will need a ride to the airport and he will be there to assist. The room is very clean with minor issues but nothing major to complain about.  The room has 2 beds but it also has a cot by the window which can sleep one more. I think this property is worth the visit if you are on a budget.More</t>
   </si>
   <si>
+    <t>Deb S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r144616233-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1484,6 +1754,9 @@
     <t>Positives:The staff were outstanding.  These people were genuinely friendly and a pleasure to deal with.The breakfast, which was similar to the offerings at any Holiday Inn, was delicious.The location was great.  It was very easy getting on and off the freeway.Negatives:The major factor in my decision to pass on this hotel next time would definitely be the paper thin walls between rooms.  The people staying next door to me were not very loud, but from my bed I could hear every word of their conversation.  I can only imagine that I kept them up all night with my snoring.  On the other hand, this was one of the few negatives of the room. The room featured a cute little reading nook, but during my stay I had to keep the heavy curtains closed because there were no sheers to block the glaring light.More</t>
   </si>
   <si>
+    <t>Ramirez R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r142427798-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1496,6 +1769,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>FRANK S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r141743223-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1514,6 +1790,9 @@
     <t>September 2012</t>
   </si>
   <si>
+    <t>gootimes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r135021047-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1529,6 +1808,9 @@
     <t xml:space="preserve">Stayed the weekend at the Microtel this past weekend. (the goods)  The Hotel itself was in decent shape, pool was nice and the room was clean.  (the bads). SKETCHY people in and out  and around the hotel.  The pop machine was pryed open and broken into while we were here.  The air conditioner in the room wasn't working at max capacity. The breakfast was way below average.  Bottom line, I would not recommend this hotel for families.  </t>
   </si>
   <si>
+    <t>wtraveler01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r28983528-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1547,6 +1829,9 @@
     <t>March 2009</t>
   </si>
   <si>
+    <t>nali831</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r28983422-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1559,6 +1844,9 @@
     <t>I stayed at this hotel for two nights before catching a flight out of DFW airport.  The rooms were clean and the staff was friendly and helpful about area attractions and restaurants.  They had a complimentary shuttle and the airport was only 5 minutes away which made things very convenient for me.</t>
   </si>
   <si>
+    <t>Egma</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r17791517-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1574,6 +1862,9 @@
     <t>I live near-by and we have stayed at this property several times  when we were remodeling or had an emergency at home.  The last occasion was earlier this week and again it was a clean, economical choice.  This is definitely a budget hotel but the rooms are large and the property is kept in excellent condition.  This hotel is located in the middle of the Dallas/Ft. Worth Metroplex very conveniently located by Six Flags, The Ballpark in Arlington and Lone Star Park.</t>
   </si>
   <si>
+    <t>beachbum01nc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r8656012-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1592,6 +1883,9 @@
     <t>August 2007</t>
   </si>
   <si>
+    <t>TJHRRM</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r8269203-Regency_Inn_Suites-Euless_Texas.html</t>
   </si>
   <si>
@@ -1608,6 +1902,9 @@
   </si>
   <si>
     <t>July 2007</t>
+  </si>
+  <si>
+    <t>722Lola88</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55815-d226212-r4956657-Regency_Inn_Suites-Euless_Texas.html</t>
@@ -2127,43 +2424,47 @@
       <c r="A2" t="n">
         <v>35466</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>175030</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -2183,50 +2484,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>35466</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>31891</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2240,50 +2545,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>35466</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>175031</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2297,50 +2606,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>35466</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>96092</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2364,50 +2677,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>35466</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>513</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2421,35 +2738,39 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>35466</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>175032</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -2457,10 +2778,10 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -2481,51 +2802,52 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>35466</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>2449</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="K8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2543,50 +2865,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>35466</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>175033</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -2610,35 +2936,39 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>35466</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>175034</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -2646,10 +2976,10 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2670,36 +3000,37 @@
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
-      <c r="Y10" t="s"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>35466</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>175035</v>
+      </c>
+      <c r="C11" t="s">
+        <v>108</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -2707,10 +3038,10 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -2731,51 +3062,52 @@
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
-      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>35466</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>175036</v>
+      </c>
+      <c r="C12" t="s">
+        <v>112</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
+        <v>114</v>
+      </c>
+      <c r="J12" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" t="s">
+        <v>117</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>118</v>
+      </c>
+      <c r="O12" t="s">
         <v>103</v>
-      </c>
-      <c r="J12" t="s">
-        <v>104</v>
-      </c>
-      <c r="K12" t="s">
-        <v>105</v>
-      </c>
-      <c r="L12" t="s">
-        <v>106</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>107</v>
-      </c>
-      <c r="O12" t="s">
-        <v>95</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
@@ -2799,35 +3131,39 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>35466</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>175037</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -2835,10 +3171,10 @@
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2851,51 +3187,52 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>35466</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>175038</v>
+      </c>
+      <c r="C14" t="s">
+        <v>123</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>2</v>
@@ -2919,50 +3256,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>35466</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>175039</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2986,50 +3327,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>35466</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>23873</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="O16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P16" t="n">
         <v>3</v>
@@ -3047,50 +3392,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>35466</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>175040</v>
+      </c>
+      <c r="C17" t="s">
+        <v>142</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J17" t="s">
+        <v>145</v>
+      </c>
+      <c r="K17" t="s">
+        <v>146</v>
+      </c>
+      <c r="L17" t="s">
+        <v>147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
         <v>129</v>
       </c>
-      <c r="K17" t="s">
-        <v>130</v>
-      </c>
-      <c r="L17" t="s">
-        <v>131</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>116</v>
-      </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -3114,50 +3463,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>35466</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>175041</v>
+      </c>
+      <c r="C18" t="s">
+        <v>148</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="K18" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="L18" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3175,50 +3528,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>35466</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>175042</v>
+      </c>
+      <c r="C19" t="s">
+        <v>155</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="n">
         <v>1</v>
@@ -3242,50 +3599,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>35466</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>175043</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="J20" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="K20" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -3309,50 +3670,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>35466</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>175044</v>
+      </c>
+      <c r="C21" t="s">
+        <v>168</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="O21" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3370,50 +3735,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>35466</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>175045</v>
+      </c>
+      <c r="C22" t="s">
+        <v>175</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -3437,50 +3806,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>35466</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>175046</v>
+      </c>
+      <c r="C23" t="s">
+        <v>182</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="J23" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="K23" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="L23" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>3</v>
@@ -3504,48 +3877,52 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>35466</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>175047</v>
+      </c>
+      <c r="C24" t="s">
+        <v>189</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="J24" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="O24" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3569,35 +3946,39 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>35466</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>175048</v>
+      </c>
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="J25" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
@@ -3605,10 +3986,10 @@
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="O25" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P25" t="n">
         <v>4</v>
@@ -3629,36 +4010,37 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
-      <c r="Y25" t="s"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>35466</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>175049</v>
+      </c>
+      <c r="C26" t="s">
+        <v>199</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="J26" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
@@ -3666,10 +4048,10 @@
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
@@ -3690,36 +4072,37 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
-      <c r="Y26" t="s"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>35466</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>175050</v>
+      </c>
+      <c r="C27" t="s">
+        <v>204</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -3727,10 +4110,10 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="O27" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3751,51 +4134,52 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>35466</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>175051</v>
+      </c>
+      <c r="C28" t="s">
+        <v>207</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="J28" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="n">
         <v>1</v>
@@ -3815,50 +4199,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>35466</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>20534</v>
+      </c>
+      <c r="C29" t="s">
+        <v>213</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="J29" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="K29" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="O29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3876,50 +4264,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>35466</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>175052</v>
+      </c>
+      <c r="C30" t="s">
+        <v>219</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="J30" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="K30" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="n">
         <v>4</v>
@@ -3943,35 +4335,39 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>35466</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>175053</v>
+      </c>
+      <c r="C31" t="s">
+        <v>225</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="J31" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="K31" t="s"/>
       <c r="L31" t="s"/>
@@ -3979,10 +4375,10 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="O31" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -4003,51 +4399,52 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
-      <c r="Y31" t="s"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>35466</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>27993</v>
+      </c>
+      <c r="C32" t="s">
+        <v>229</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="J32" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="K32" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s">
+        <v>234</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
         <v>203</v>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
-        <v>178</v>
-      </c>
       <c r="O32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4061,50 +4458,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>35466</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>5544</v>
+      </c>
+      <c r="C33" t="s">
+        <v>235</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="J33" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="K33" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="L33" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="n">
         <v>1</v>
@@ -4128,35 +4529,39 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>35466</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>175054</v>
+      </c>
+      <c r="C34" t="s">
+        <v>242</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>210</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>211</v>
+        <v>244</v>
       </c>
       <c r="J34" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -4164,10 +4569,10 @@
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="O34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P34" t="n">
         <v>1</v>
@@ -4188,49 +4593,50 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>35466</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>175055</v>
+      </c>
+      <c r="C35" t="s">
+        <v>246</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="J35" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4254,50 +4660,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>35466</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>175056</v>
+      </c>
+      <c r="C36" t="s">
+        <v>250</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="J36" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="K36" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="L36" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4321,50 +4731,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>35466</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>175057</v>
+      </c>
+      <c r="C37" t="s">
+        <v>258</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="J37" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="K37" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="L37" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="M37" t="n">
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4378,50 +4792,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>35466</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>11360</v>
+      </c>
+      <c r="C38" t="s">
+        <v>264</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="J38" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="K38" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4435,50 +4853,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>35466</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>175058</v>
+      </c>
+      <c r="C39" t="s">
+        <v>271</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>235</v>
+        <v>273</v>
       </c>
       <c r="J39" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="K39" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="L39" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="O39" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4492,50 +4914,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>35466</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>175059</v>
+      </c>
+      <c r="C40" t="s">
+        <v>277</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="J40" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="K40" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="L40" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="O40" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -4553,50 +4979,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>35466</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>175060</v>
+      </c>
+      <c r="C41" t="s">
+        <v>284</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="J41" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="K41" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="L41" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4614,50 +5044,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>35466</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>175061</v>
+      </c>
+      <c r="C42" t="s">
+        <v>291</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="J42" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="K42" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="L42" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -4677,50 +5111,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>35466</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>175062</v>
+      </c>
+      <c r="C43" t="s">
+        <v>298</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="J43" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="K43" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="L43" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="O43" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -4734,35 +5172,39 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>35466</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>14469</v>
+      </c>
+      <c r="C44" t="s">
+        <v>305</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="J44" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
@@ -4770,10 +5212,10 @@
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="O44" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P44" t="n">
         <v>3</v>
@@ -4794,49 +5236,50 @@
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
-      <c r="Y44" t="s"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>35466</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>31315</v>
+      </c>
+      <c r="C45" t="s">
+        <v>310</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>267</v>
+        <v>311</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="J45" t="s">
-        <v>269</v>
+        <v>313</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4860,48 +5303,52 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>35466</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>175063</v>
+      </c>
+      <c r="C46" t="s">
+        <v>314</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>270</v>
+        <v>315</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="J46" t="s">
-        <v>272</v>
+        <v>317</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P46" t="n">
         <v>2</v>
@@ -4925,35 +5372,39 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>35466</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>175064</v>
+      </c>
+      <c r="C47" t="s">
+        <v>319</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="J47" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s"/>
@@ -4961,10 +5412,10 @@
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="O47" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -4985,51 +5436,52 @@
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s"/>
-      <c r="X47" t="s"/>
-      <c r="Y47" t="s"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>35466</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>175065</v>
+      </c>
+      <c r="C48" t="s">
+        <v>323</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>277</v>
+        <v>324</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>278</v>
+        <v>325</v>
       </c>
       <c r="J48" t="s">
-        <v>279</v>
+        <v>326</v>
       </c>
       <c r="K48" t="s">
-        <v>280</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s">
-        <v>281</v>
+        <v>328</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="O48" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P48" t="n">
         <v>1</v>
@@ -5049,50 +5501,54 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>35466</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>7280</v>
+      </c>
+      <c r="C49" t="s">
+        <v>330</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>284</v>
+        <v>332</v>
       </c>
       <c r="J49" t="s">
-        <v>285</v>
+        <v>333</v>
       </c>
       <c r="K49" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="L49" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>273</v>
+        <v>318</v>
       </c>
       <c r="O49" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P49" t="n">
         <v>2</v>
@@ -5112,50 +5568,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>287</v>
+        <v>335</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>35466</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>175066</v>
+      </c>
+      <c r="C50" t="s">
+        <v>336</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>288</v>
+        <v>337</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>289</v>
+        <v>338</v>
       </c>
       <c r="J50" t="s">
-        <v>290</v>
+        <v>339</v>
       </c>
       <c r="K50" t="s">
-        <v>291</v>
+        <v>340</v>
       </c>
       <c r="L50" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
       <c r="M50" t="n">
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -5179,50 +5639,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>292</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>35466</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>175067</v>
+      </c>
+      <c r="C51" t="s">
+        <v>343</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>294</v>
+        <v>344</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>295</v>
+        <v>345</v>
       </c>
       <c r="J51" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="K51" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="L51" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5246,35 +5710,39 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>298</v>
+        <v>348</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>35466</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>175068</v>
+      </c>
+      <c r="C52" t="s">
+        <v>349</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>299</v>
+        <v>350</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>300</v>
+        <v>351</v>
       </c>
       <c r="J52" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -5282,10 +5750,10 @@
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5306,51 +5774,52 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>35466</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>175069</v>
+      </c>
+      <c r="C53" t="s">
+        <v>353</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>302</v>
+        <v>354</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>303</v>
+        <v>355</v>
       </c>
       <c r="J53" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="K53" t="s">
-        <v>305</v>
+        <v>357</v>
       </c>
       <c r="L53" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5374,50 +5843,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>35466</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>175070</v>
+      </c>
+      <c r="C54" t="s">
+        <v>360</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="J54" t="s">
-        <v>310</v>
+        <v>363</v>
       </c>
       <c r="K54" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="L54" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="O54" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P54" t="n">
         <v>2</v>
@@ -5441,50 +5914,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>35466</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>175071</v>
+      </c>
+      <c r="C55" t="s">
+        <v>366</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>314</v>
+        <v>368</v>
       </c>
       <c r="J55" t="s">
-        <v>315</v>
+        <v>369</v>
       </c>
       <c r="K55" t="s">
-        <v>316</v>
+        <v>370</v>
       </c>
       <c r="L55" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="O55" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -5504,50 +5981,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>35466</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>175072</v>
+      </c>
+      <c r="C56" t="s">
+        <v>373</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>319</v>
+        <v>374</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>320</v>
+        <v>375</v>
       </c>
       <c r="J56" t="s">
-        <v>321</v>
+        <v>376</v>
       </c>
       <c r="K56" t="s">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="L56" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
       <c r="N56" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="O56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="s"/>
@@ -5567,35 +6048,39 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>323</v>
+        <v>378</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>35466</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C57" t="s">
+        <v>379</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>324</v>
+        <v>380</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="J57" t="s">
-        <v>326</v>
+        <v>382</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -5603,10 +6088,10 @@
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>327</v>
+        <v>383</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -5627,36 +6112,37 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>35466</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>520</v>
+      </c>
+      <c r="C58" t="s">
+        <v>384</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>328</v>
+        <v>385</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>329</v>
+        <v>386</v>
       </c>
       <c r="J58" t="s">
-        <v>330</v>
+        <v>387</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
@@ -5664,10 +6150,10 @@
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>327</v>
+        <v>383</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5688,36 +6174,37 @@
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s"/>
-      <c r="X58" t="s"/>
-      <c r="Y58" t="s"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>35466</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>175073</v>
+      </c>
+      <c r="C59" t="s">
+        <v>388</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>331</v>
+        <v>389</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>332</v>
+        <v>390</v>
       </c>
       <c r="J59" t="s">
-        <v>333</v>
+        <v>391</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -5725,10 +6212,10 @@
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>334</v>
+        <v>392</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="n">
         <v>4</v>
@@ -5749,36 +6236,37 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>35466</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>4765</v>
+      </c>
+      <c r="C60" t="s">
+        <v>393</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>336</v>
+        <v>395</v>
       </c>
       <c r="J60" t="s">
-        <v>337</v>
+        <v>396</v>
       </c>
       <c r="K60" t="s"/>
       <c r="L60" t="s"/>
@@ -5786,10 +6274,10 @@
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>334</v>
+        <v>392</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -5810,36 +6298,37 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
-      <c r="Y60" t="s"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>35466</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>91772</v>
+      </c>
+      <c r="C61" t="s">
+        <v>397</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>338</v>
+        <v>398</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>339</v>
+        <v>399</v>
       </c>
       <c r="J61" t="s">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
@@ -5847,10 +6336,10 @@
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>4</v>
@@ -5871,51 +6360,52 @@
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
-      <c r="Y61" t="s"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>35466</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>175074</v>
+      </c>
+      <c r="C62" t="s">
+        <v>402</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>343</v>
+        <v>404</v>
       </c>
       <c r="J62" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="K62" t="s">
-        <v>345</v>
+        <v>406</v>
       </c>
       <c r="L62" t="s">
-        <v>346</v>
+        <v>407</v>
       </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
       <c r="N62" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="O62" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -5929,48 +6419,52 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>348</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>35466</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>175075</v>
+      </c>
+      <c r="C63" t="s">
+        <v>410</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>350</v>
+        <v>412</v>
       </c>
       <c r="J63" t="s">
-        <v>344</v>
+        <v>405</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="n">
         <v>1</v>
@@ -5994,35 +6488,39 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>35466</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>5653</v>
+      </c>
+      <c r="C64" t="s">
+        <v>413</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>351</v>
+        <v>414</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>352</v>
+        <v>415</v>
       </c>
       <c r="J64" t="s">
-        <v>353</v>
+        <v>416</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s"/>
@@ -6030,10 +6528,10 @@
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="O64" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P64" t="n">
         <v>2</v>
@@ -6054,36 +6552,37 @@
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
-      <c r="Y64" t="s"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>35466</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>18121</v>
+      </c>
+      <c r="C65" t="s">
+        <v>417</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>354</v>
+        <v>418</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>355</v>
+        <v>419</v>
       </c>
       <c r="J65" t="s">
-        <v>356</v>
+        <v>420</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s"/>
@@ -6091,10 +6590,10 @@
         <v>5</v>
       </c>
       <c r="N65" t="s">
-        <v>357</v>
+        <v>421</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6115,51 +6614,52 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
-      <c r="Y65" t="s"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>35466</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>408</v>
+      </c>
+      <c r="C66" t="s">
+        <v>422</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>358</v>
+        <v>423</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="J66" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="K66" t="s">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="L66" t="s">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="M66" t="n">
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>357</v>
+        <v>421</v>
       </c>
       <c r="O66" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P66" t="n">
         <v>2</v>
@@ -6183,50 +6683,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>362</v>
+        <v>427</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>35466</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>7</v>
+      </c>
+      <c r="C67" t="s">
+        <v>428</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>363</v>
+        <v>429</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>364</v>
+        <v>430</v>
       </c>
       <c r="J67" t="s">
-        <v>365</v>
+        <v>431</v>
       </c>
       <c r="K67" t="s">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="L67" t="s">
-        <v>367</v>
+        <v>433</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="O67" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6250,35 +6754,39 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>369</v>
+        <v>435</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>35466</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>10441</v>
+      </c>
+      <c r="C68" t="s">
+        <v>436</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>370</v>
+        <v>437</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>371</v>
+        <v>438</v>
       </c>
       <c r="J68" t="s">
-        <v>372</v>
+        <v>439</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -6286,10 +6794,10 @@
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="O68" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -6310,36 +6818,37 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>35466</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>9507</v>
+      </c>
+      <c r="C69" t="s">
+        <v>441</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>374</v>
+        <v>442</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>375</v>
+        <v>443</v>
       </c>
       <c r="J69" t="s">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6347,10 +6856,10 @@
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>377</v>
+        <v>445</v>
       </c>
       <c r="O69" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -6371,36 +6880,37 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>35466</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>86956</v>
+      </c>
+      <c r="C70" t="s">
+        <v>446</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>378</v>
+        <v>447</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>379</v>
+        <v>448</v>
       </c>
       <c r="J70" t="s">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s"/>
@@ -6408,10 +6918,10 @@
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>381</v>
+        <v>450</v>
       </c>
       <c r="O70" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -6432,49 +6942,50 @@
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
-      <c r="Y70" t="s"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>35466</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>175076</v>
+      </c>
+      <c r="C71" t="s">
+        <v>451</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>382</v>
+        <v>452</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>383</v>
+        <v>453</v>
       </c>
       <c r="J71" t="s">
-        <v>384</v>
+        <v>454</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>385</v>
+        <v>455</v>
       </c>
       <c r="O71" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6498,35 +7009,39 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>35466</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>175077</v>
+      </c>
+      <c r="C72" t="s">
+        <v>456</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>386</v>
+        <v>457</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>387</v>
+        <v>458</v>
       </c>
       <c r="J72" t="s">
-        <v>388</v>
+        <v>459</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s"/>
@@ -6534,10 +7049,10 @@
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>385</v>
+        <v>455</v>
       </c>
       <c r="O72" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -6558,36 +7073,37 @@
       <c r="V72" t="n">
         <v>0</v>
       </c>
-      <c r="W72" t="s"/>
-      <c r="X72" t="s"/>
-      <c r="Y72" t="s"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>35466</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>3843</v>
+      </c>
+      <c r="C73" t="s">
+        <v>460</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>389</v>
+        <v>461</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>390</v>
+        <v>462</v>
       </c>
       <c r="J73" t="s">
-        <v>391</v>
+        <v>463</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s"/>
@@ -6595,10 +7111,10 @@
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>385</v>
+        <v>455</v>
       </c>
       <c r="O73" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -6619,51 +7135,52 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>35466</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>175078</v>
+      </c>
+      <c r="C74" t="s">
+        <v>464</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>392</v>
+        <v>465</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>393</v>
+        <v>466</v>
       </c>
       <c r="J74" t="s">
-        <v>394</v>
+        <v>467</v>
       </c>
       <c r="K74" t="s">
-        <v>395</v>
+        <v>468</v>
       </c>
       <c r="L74" t="s">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>397</v>
+        <v>470</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P74" t="n">
         <v>4</v>
@@ -6687,50 +7204,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>396</v>
+        <v>469</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>35466</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>175079</v>
+      </c>
+      <c r="C75" t="s">
+        <v>471</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>398</v>
+        <v>472</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>399</v>
+        <v>473</v>
       </c>
       <c r="J75" t="s">
-        <v>400</v>
+        <v>474</v>
       </c>
       <c r="K75" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="L75" t="s">
-        <v>402</v>
+        <v>476</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>397</v>
+        <v>470</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -6754,50 +7275,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>402</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>35466</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>175080</v>
+      </c>
+      <c r="C76" t="s">
+        <v>477</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>403</v>
+        <v>478</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>404</v>
+        <v>479</v>
       </c>
       <c r="J76" t="s">
-        <v>405</v>
+        <v>480</v>
       </c>
       <c r="K76" t="s">
-        <v>406</v>
+        <v>481</v>
       </c>
       <c r="L76" t="s">
-        <v>407</v>
+        <v>482</v>
       </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
       <c r="N76" t="s">
-        <v>397</v>
+        <v>470</v>
       </c>
       <c r="O76" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -6821,50 +7346,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>407</v>
+        <v>482</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>35466</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>175081</v>
+      </c>
+      <c r="C77" t="s">
+        <v>483</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>408</v>
+        <v>484</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>409</v>
+        <v>485</v>
       </c>
       <c r="J77" t="s">
-        <v>410</v>
+        <v>486</v>
       </c>
       <c r="K77" t="s">
-        <v>411</v>
+        <v>487</v>
       </c>
       <c r="L77" t="s">
-        <v>412</v>
+        <v>488</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>413</v>
+        <v>489</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>1</v>
@@ -6888,50 +7417,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>414</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>35466</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>175082</v>
+      </c>
+      <c r="C78" t="s">
+        <v>491</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>415</v>
+        <v>492</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>416</v>
+        <v>493</v>
       </c>
       <c r="J78" t="s">
-        <v>417</v>
+        <v>494</v>
       </c>
       <c r="K78" t="s">
-        <v>418</v>
+        <v>495</v>
       </c>
       <c r="L78" t="s">
-        <v>419</v>
+        <v>496</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>420</v>
+        <v>497</v>
       </c>
       <c r="O78" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -6955,50 +7488,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>419</v>
+        <v>496</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>35466</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>175083</v>
+      </c>
+      <c r="C79" t="s">
+        <v>498</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>421</v>
+        <v>499</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>422</v>
+        <v>500</v>
       </c>
       <c r="J79" t="s">
-        <v>423</v>
+        <v>501</v>
       </c>
       <c r="K79" t="s">
-        <v>424</v>
+        <v>502</v>
       </c>
       <c r="L79" t="s">
-        <v>425</v>
+        <v>503</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>426</v>
+        <v>504</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>2</v>
@@ -7022,50 +7559,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>427</v>
+        <v>505</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>35466</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>175084</v>
+      </c>
+      <c r="C80" t="s">
+        <v>506</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>428</v>
+        <v>507</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>429</v>
+        <v>508</v>
       </c>
       <c r="J80" t="s">
-        <v>430</v>
+        <v>509</v>
       </c>
       <c r="K80" t="s">
-        <v>431</v>
+        <v>510</v>
       </c>
       <c r="L80" t="s">
-        <v>432</v>
+        <v>511</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>433</v>
+        <v>512</v>
       </c>
       <c r="O80" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7089,50 +7630,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>432</v>
+        <v>511</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>35466</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>22459</v>
+      </c>
+      <c r="C81" t="s">
+        <v>513</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>434</v>
+        <v>514</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>435</v>
+        <v>515</v>
       </c>
       <c r="J81" t="s">
-        <v>430</v>
+        <v>509</v>
       </c>
       <c r="K81" t="s">
-        <v>436</v>
+        <v>516</v>
       </c>
       <c r="L81" t="s">
-        <v>437</v>
+        <v>517</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>426</v>
+        <v>504</v>
       </c>
       <c r="O81" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P81" t="n">
         <v>2</v>
@@ -7156,35 +7701,39 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>437</v>
+        <v>517</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>35466</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>58155</v>
+      </c>
+      <c r="C82" t="s">
+        <v>518</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>438</v>
+        <v>519</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>439</v>
+        <v>520</v>
       </c>
       <c r="J82" t="s">
-        <v>440</v>
+        <v>521</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s"/>
@@ -7192,10 +7741,10 @@
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>433</v>
+        <v>512</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -7216,36 +7765,37 @@
       <c r="V82" t="n">
         <v>0</v>
       </c>
-      <c r="W82" t="s"/>
-      <c r="X82" t="s"/>
-      <c r="Y82" t="s"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>35466</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>175085</v>
+      </c>
+      <c r="C83" t="s">
+        <v>522</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>441</v>
+        <v>523</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="J83" t="s">
-        <v>443</v>
+        <v>525</v>
       </c>
       <c r="K83" t="s"/>
       <c r="L83" t="s"/>
@@ -7253,10 +7803,10 @@
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>444</v>
+        <v>526</v>
       </c>
       <c r="O83" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P83" t="n">
         <v>2</v>
@@ -7275,51 +7825,52 @@
       <c r="V83" t="n">
         <v>0</v>
       </c>
-      <c r="W83" t="s"/>
-      <c r="X83" t="s"/>
-      <c r="Y83" t="s"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>35466</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>175086</v>
+      </c>
+      <c r="C84" t="s">
+        <v>527</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>445</v>
+        <v>528</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>446</v>
+        <v>529</v>
       </c>
       <c r="J84" t="s">
-        <v>447</v>
+        <v>530</v>
       </c>
       <c r="K84" t="s">
-        <v>448</v>
+        <v>531</v>
       </c>
       <c r="L84" t="s">
-        <v>449</v>
+        <v>532</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>444</v>
+        <v>526</v>
       </c>
       <c r="O84" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7343,50 +7894,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>449</v>
+        <v>532</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>35466</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>21138</v>
+      </c>
+      <c r="C85" t="s">
+        <v>533</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>450</v>
+        <v>534</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>451</v>
+        <v>535</v>
       </c>
       <c r="J85" t="s">
-        <v>452</v>
+        <v>536</v>
       </c>
       <c r="K85" t="s">
-        <v>453</v>
+        <v>537</v>
       </c>
       <c r="L85" t="s">
-        <v>454</v>
+        <v>538</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>444</v>
+        <v>526</v>
       </c>
       <c r="O85" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -7410,50 +7965,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>455</v>
+        <v>539</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>35466</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>175087</v>
+      </c>
+      <c r="C86" t="s">
+        <v>540</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="J86" t="s">
-        <v>458</v>
+        <v>543</v>
       </c>
       <c r="K86" t="s">
-        <v>459</v>
+        <v>544</v>
       </c>
       <c r="L86" t="s">
-        <v>460</v>
+        <v>545</v>
       </c>
       <c r="M86" t="n">
         <v>3</v>
       </c>
       <c r="N86" t="s">
-        <v>461</v>
+        <v>546</v>
       </c>
       <c r="O86" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -7477,35 +8036,39 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>462</v>
+        <v>547</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>35466</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>4214</v>
+      </c>
+      <c r="C87" t="s">
+        <v>548</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>463</v>
+        <v>549</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>464</v>
+        <v>550</v>
       </c>
       <c r="J87" t="s">
-        <v>458</v>
+        <v>543</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s"/>
@@ -7513,10 +8076,10 @@
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>444</v>
+        <v>526</v>
       </c>
       <c r="O87" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -7537,51 +8100,52 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
-      <c r="W87" t="s"/>
-      <c r="X87" t="s"/>
-      <c r="Y87" t="s"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>35466</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>35626</v>
+      </c>
+      <c r="C88" t="s">
+        <v>551</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>465</v>
+        <v>552</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>466</v>
+        <v>553</v>
       </c>
       <c r="J88" t="s">
-        <v>458</v>
+        <v>543</v>
       </c>
       <c r="K88" t="s">
-        <v>467</v>
+        <v>554</v>
       </c>
       <c r="L88" t="s">
-        <v>468</v>
+        <v>555</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>444</v>
+        <v>526</v>
       </c>
       <c r="O88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P88" t="n">
         <v>4</v>
@@ -7605,35 +8169,39 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>468</v>
+        <v>555</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>35466</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>175088</v>
+      </c>
+      <c r="C89" t="s">
+        <v>556</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>469</v>
+        <v>557</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>470</v>
+        <v>558</v>
       </c>
       <c r="J89" t="s">
-        <v>471</v>
+        <v>559</v>
       </c>
       <c r="K89" t="s"/>
       <c r="L89" t="s"/>
@@ -7641,10 +8209,10 @@
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>461</v>
+        <v>546</v>
       </c>
       <c r="O89" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -7665,51 +8233,52 @@
       <c r="V89" t="n">
         <v>0</v>
       </c>
-      <c r="W89" t="s"/>
-      <c r="X89" t="s"/>
-      <c r="Y89" t="s"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>35466</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>175089</v>
+      </c>
+      <c r="C90" t="s">
+        <v>560</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>472</v>
+        <v>561</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>473</v>
+        <v>562</v>
       </c>
       <c r="J90" t="s">
-        <v>474</v>
+        <v>563</v>
       </c>
       <c r="K90" t="s">
-        <v>475</v>
+        <v>564</v>
       </c>
       <c r="L90" t="s">
-        <v>476</v>
+        <v>565</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>477</v>
+        <v>566</v>
       </c>
       <c r="O90" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -7733,50 +8302,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>478</v>
+        <v>567</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>35466</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>64967</v>
+      </c>
+      <c r="C91" t="s">
+        <v>568</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>479</v>
+        <v>569</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>480</v>
+        <v>570</v>
       </c>
       <c r="J91" t="s">
-        <v>481</v>
+        <v>571</v>
       </c>
       <c r="K91" t="s">
-        <v>482</v>
+        <v>572</v>
       </c>
       <c r="L91" t="s">
-        <v>483</v>
+        <v>573</v>
       </c>
       <c r="M91" t="n">
         <v>3</v>
       </c>
       <c r="N91" t="s">
-        <v>484</v>
+        <v>574</v>
       </c>
       <c r="O91" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -7800,35 +8373,39 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>485</v>
+        <v>575</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>35466</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>175090</v>
+      </c>
+      <c r="C92" t="s">
+        <v>576</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>486</v>
+        <v>577</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>487</v>
+        <v>578</v>
       </c>
       <c r="J92" t="s">
-        <v>488</v>
+        <v>579</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s"/>
@@ -7836,10 +8413,10 @@
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>489</v>
+        <v>580</v>
       </c>
       <c r="O92" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -7858,51 +8435,52 @@
       <c r="V92" t="n">
         <v>0</v>
       </c>
-      <c r="W92" t="s"/>
-      <c r="X92" t="s"/>
-      <c r="Y92" t="s"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>35466</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>89495</v>
+      </c>
+      <c r="C93" t="s">
+        <v>581</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>490</v>
+        <v>582</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>491</v>
+        <v>583</v>
       </c>
       <c r="J93" t="s">
-        <v>492</v>
+        <v>584</v>
       </c>
       <c r="K93" t="s">
-        <v>493</v>
+        <v>585</v>
       </c>
       <c r="L93" t="s">
-        <v>494</v>
+        <v>586</v>
       </c>
       <c r="M93" t="n">
         <v>2</v>
       </c>
       <c r="N93" t="s">
-        <v>495</v>
+        <v>587</v>
       </c>
       <c r="O93" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -7926,41 +8504,45 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>494</v>
+        <v>586</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>35466</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>175091</v>
+      </c>
+      <c r="C94" t="s">
+        <v>588</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>496</v>
+        <v>589</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>497</v>
+        <v>590</v>
       </c>
       <c r="J94" t="s">
-        <v>498</v>
+        <v>591</v>
       </c>
       <c r="K94" t="s">
-        <v>499</v>
+        <v>592</v>
       </c>
       <c r="L94" t="s">
-        <v>500</v>
+        <v>593</v>
       </c>
       <c r="M94" t="n">
         <v>2</v>
@@ -7989,50 +8571,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>500</v>
+        <v>593</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>35466</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>175092</v>
+      </c>
+      <c r="C95" t="s">
+        <v>594</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>501</v>
+        <v>595</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>502</v>
+        <v>596</v>
       </c>
       <c r="J95" t="s">
-        <v>503</v>
+        <v>597</v>
       </c>
       <c r="K95" t="s">
-        <v>504</v>
+        <v>598</v>
       </c>
       <c r="L95" t="s">
-        <v>505</v>
+        <v>599</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>506</v>
+        <v>600</v>
       </c>
       <c r="O95" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8056,50 +8642,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>505</v>
+        <v>599</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>35466</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>175093</v>
+      </c>
+      <c r="C96" t="s">
+        <v>601</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>507</v>
+        <v>602</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>508</v>
+        <v>603</v>
       </c>
       <c r="J96" t="s">
-        <v>503</v>
+        <v>597</v>
       </c>
       <c r="K96" t="s">
-        <v>509</v>
+        <v>604</v>
       </c>
       <c r="L96" t="s">
-        <v>510</v>
+        <v>605</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>506</v>
+        <v>600</v>
       </c>
       <c r="O96" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8123,41 +8713,45 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>510</v>
+        <v>605</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>35466</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>175094</v>
+      </c>
+      <c r="C97" t="s">
+        <v>606</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>511</v>
+        <v>607</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>512</v>
+        <v>608</v>
       </c>
       <c r="J97" t="s">
-        <v>513</v>
+        <v>609</v>
       </c>
       <c r="K97" t="s">
-        <v>514</v>
+        <v>610</v>
       </c>
       <c r="L97" t="s">
-        <v>515</v>
+        <v>611</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
@@ -8176,50 +8770,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>515</v>
+        <v>611</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>35466</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>175095</v>
+      </c>
+      <c r="C98" t="s">
+        <v>612</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>516</v>
+        <v>613</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>517</v>
+        <v>614</v>
       </c>
       <c r="J98" t="s">
-        <v>518</v>
+        <v>615</v>
       </c>
       <c r="K98" t="s">
-        <v>519</v>
+        <v>616</v>
       </c>
       <c r="L98" t="s">
-        <v>520</v>
+        <v>617</v>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="O98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P98" t="n">
         <v>1</v>
@@ -8237,50 +8835,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>520</v>
+        <v>617</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>35466</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>175096</v>
+      </c>
+      <c r="C99" t="s">
+        <v>619</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>522</v>
+        <v>620</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>523</v>
+        <v>621</v>
       </c>
       <c r="J99" t="s">
-        <v>524</v>
+        <v>622</v>
       </c>
       <c r="K99" t="s">
-        <v>525</v>
+        <v>623</v>
       </c>
       <c r="L99" t="s">
-        <v>526</v>
+        <v>624</v>
       </c>
       <c r="M99" t="n">
         <v>2</v>
       </c>
       <c r="N99" t="s">
-        <v>527</v>
+        <v>625</v>
       </c>
       <c r="O99" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -8302,41 +8904,45 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>526</v>
+        <v>624</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>35466</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>175097</v>
+      </c>
+      <c r="C100" t="s">
+        <v>626</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>528</v>
+        <v>627</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>529</v>
+        <v>628</v>
       </c>
       <c r="J100" t="s">
-        <v>530</v>
+        <v>629</v>
       </c>
       <c r="K100" t="s">
-        <v>531</v>
+        <v>630</v>
       </c>
       <c r="L100" t="s">
-        <v>532</v>
+        <v>631</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
@@ -8355,7 +8961,7 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>532</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
